--- a/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9992500161041039</v>
+        <v>1.015799094450695</v>
       </c>
       <c r="D2">
-        <v>1.017011927818974</v>
+        <v>1.036661605619388</v>
       </c>
       <c r="E2">
-        <v>1.006744497236648</v>
+        <v>1.019447179660432</v>
       </c>
       <c r="F2">
-        <v>1.011470592291236</v>
+        <v>1.040917489205014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04484988784598</v>
+        <v>1.056276697279493</v>
       </c>
       <c r="J2">
-        <v>1.02145318222449</v>
+        <v>1.037517311738297</v>
       </c>
       <c r="K2">
-        <v>1.028239239793186</v>
+        <v>1.047632763720362</v>
       </c>
       <c r="L2">
-        <v>1.018110663430222</v>
+        <v>1.03064207296318</v>
       </c>
       <c r="M2">
-        <v>1.022772403506864</v>
+        <v>1.051834757515002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006615122718747</v>
+        <v>1.022467829347763</v>
       </c>
       <c r="D3">
-        <v>1.022511469348534</v>
+        <v>1.04198147623889</v>
       </c>
       <c r="E3">
-        <v>1.013011005631426</v>
+        <v>1.02500282651083</v>
       </c>
       <c r="F3">
-        <v>1.018690790180364</v>
+        <v>1.046773052490311</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047562635192111</v>
+        <v>1.05880337495966</v>
       </c>
       <c r="J3">
-        <v>1.026927063000444</v>
+        <v>1.042364189869623</v>
       </c>
       <c r="K3">
-        <v>1.032864191566391</v>
+        <v>1.052103961522621</v>
       </c>
       <c r="L3">
-        <v>1.023480071530608</v>
+        <v>1.035325482373027</v>
       </c>
       <c r="M3">
-        <v>1.029089976508163</v>
+        <v>1.056840497347448</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011236228099382</v>
+        <v>1.026666235321489</v>
       </c>
       <c r="D4">
-        <v>1.025964042624075</v>
+        <v>1.045332897876495</v>
       </c>
       <c r="E4">
-        <v>1.016948094610269</v>
+        <v>1.028505593021205</v>
       </c>
       <c r="F4">
-        <v>1.023227801825723</v>
+        <v>1.050464530901565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049250464073154</v>
+        <v>1.060381074581613</v>
       </c>
       <c r="J4">
-        <v>1.030356812673912</v>
+        <v>1.045411567319678</v>
       </c>
       <c r="K4">
-        <v>1.03575888690411</v>
+        <v>1.054913330138394</v>
       </c>
       <c r="L4">
-        <v>1.026846185373105</v>
+        <v>1.03827173559109</v>
       </c>
       <c r="M4">
-        <v>1.033053743042633</v>
+        <v>1.059989779680891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013146257685211</v>
+        <v>1.028404700493749</v>
       </c>
       <c r="D5">
-        <v>1.027391450295241</v>
+        <v>1.046721091880965</v>
       </c>
       <c r="E5">
-        <v>1.018576579886216</v>
+        <v>1.029957163819798</v>
       </c>
       <c r="F5">
-        <v>1.025104652335414</v>
+        <v>1.051994209599965</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049944610072825</v>
+        <v>1.061031186319341</v>
       </c>
       <c r="J5">
-        <v>1.031773220702163</v>
+        <v>1.046672389789903</v>
       </c>
       <c r="K5">
-        <v>1.036953550185418</v>
+        <v>1.056075228610405</v>
       </c>
       <c r="L5">
-        <v>1.028236742630742</v>
+        <v>1.039491108232887</v>
       </c>
       <c r="M5">
-        <v>1.034691992988938</v>
+        <v>1.061293234589227</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013465096794007</v>
+        <v>1.028695078548036</v>
       </c>
       <c r="D6">
-        <v>1.027629744196044</v>
+        <v>1.046952987528814</v>
       </c>
       <c r="E6">
-        <v>1.018848487980104</v>
+        <v>1.030199687327714</v>
       </c>
       <c r="F6">
-        <v>1.025418044156308</v>
+        <v>1.05224977737238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050060276602289</v>
+        <v>1.061139586820618</v>
       </c>
       <c r="J6">
-        <v>1.032009587645325</v>
+        <v>1.04688292456372</v>
       </c>
       <c r="K6">
-        <v>1.037152866299399</v>
+        <v>1.056269217901856</v>
       </c>
       <c r="L6">
-        <v>1.028468820695059</v>
+        <v>1.039694744322666</v>
       </c>
       <c r="M6">
-        <v>1.034965457548175</v>
+        <v>1.061510915451393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011261875990465</v>
+        <v>1.026689567309788</v>
       </c>
       <c r="D7">
-        <v>1.02598320856387</v>
+        <v>1.045351527211025</v>
       </c>
       <c r="E7">
-        <v>1.016969957369398</v>
+        <v>1.028525070121784</v>
       </c>
       <c r="F7">
-        <v>1.023252998010906</v>
+        <v>1.050485056433216</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049259798929062</v>
+        <v>1.060389812393914</v>
       </c>
       <c r="J7">
-        <v>1.030375837049856</v>
+        <v>1.045428492989746</v>
       </c>
       <c r="K7">
-        <v>1.035774936052183</v>
+        <v>1.054928929625054</v>
       </c>
       <c r="L7">
-        <v>1.026864860846107</v>
+        <v>1.038288103294477</v>
       </c>
       <c r="M7">
-        <v>1.033075741886049</v>
+        <v>1.06000727582032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00177025093334</v>
+        <v>1.018077864604102</v>
       </c>
       <c r="D8">
-        <v>1.018893302790289</v>
+        <v>1.038478935484117</v>
       </c>
       <c r="E8">
-        <v>1.008887635929138</v>
+        <v>1.021344470324101</v>
       </c>
       <c r="F8">
-        <v>1.013939762072662</v>
+        <v>1.042917281144471</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045781117099086</v>
+        <v>1.057142792377066</v>
       </c>
       <c r="J8">
-        <v>1.02332722630401</v>
+        <v>1.039174354010068</v>
       </c>
       <c r="K8">
-        <v>1.029823292199356</v>
+        <v>1.04916173980347</v>
       </c>
       <c r="L8">
-        <v>1.019948549460338</v>
+        <v>1.032242875401606</v>
       </c>
       <c r="M8">
-        <v>1.024934163901401</v>
+        <v>1.05354567464499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838405213881932</v>
+        <v>1.001940434375436</v>
       </c>
       <c r="D9">
-        <v>1.005522343232272</v>
+        <v>1.02562263567177</v>
       </c>
       <c r="E9">
-        <v>0.9936676673356996</v>
+        <v>1.007933982413036</v>
       </c>
       <c r="F9">
-        <v>0.9964056621485143</v>
+        <v>1.028780830331327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039097256235192</v>
+        <v>1.050955927442306</v>
       </c>
       <c r="J9">
-        <v>1.00997710738377</v>
+        <v>1.027424856490641</v>
       </c>
       <c r="K9">
-        <v>1.018526455183591</v>
+        <v>1.038313245167624</v>
       </c>
       <c r="L9">
-        <v>1.006864324553934</v>
+        <v>1.020899634566098</v>
       </c>
       <c r="M9">
-        <v>1.009557325406111</v>
+        <v>1.041423600201396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.970924720147557</v>
+        <v>0.9904285908587351</v>
       </c>
       <c r="D10">
-        <v>0.9959145668377658</v>
+        <v>1.016473285104701</v>
       </c>
       <c r="E10">
-        <v>0.9827437502048606</v>
+        <v>0.998404217566412</v>
       </c>
       <c r="F10">
-        <v>0.9838199363575236</v>
+        <v>1.018733529211459</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034210496554844</v>
+        <v>1.046476974929873</v>
       </c>
       <c r="J10">
-        <v>1.000341370281905</v>
+        <v>1.019027174157459</v>
       </c>
       <c r="K10">
-        <v>1.010357978919436</v>
+        <v>1.030551345678046</v>
       </c>
       <c r="L10">
-        <v>0.99743172166403</v>
+        <v>1.012802344257238</v>
       </c>
       <c r="M10">
-        <v>0.9984876039489256</v>
+        <v>1.03277258598648</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9650633163116782</v>
+        <v>0.9852377852703453</v>
       </c>
       <c r="D11">
-        <v>0.9915624745086405</v>
+        <v>1.012354635076229</v>
       </c>
       <c r="E11">
-        <v>0.9777977080486057</v>
+        <v>0.9941174075023085</v>
       </c>
       <c r="F11">
-        <v>0.9781203670680918</v>
+        <v>1.014213596821922</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031976921009724</v>
+        <v>1.044442842939318</v>
       </c>
       <c r="J11">
-        <v>0.9959653571755279</v>
+        <v>1.015237851316005</v>
       </c>
       <c r="K11">
-        <v>1.00664528388398</v>
+        <v>1.0270472624157</v>
       </c>
       <c r="L11">
-        <v>0.9931508351435887</v>
+        <v>1.009151120157989</v>
       </c>
       <c r="M11">
-        <v>0.9934670431210343</v>
+        <v>1.028872352854818</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9628417359117848</v>
+        <v>0.98327607844603</v>
       </c>
       <c r="D12">
-        <v>0.9899143913085615</v>
+        <v>1.01079931103183</v>
       </c>
       <c r="E12">
-        <v>0.9759249691270454</v>
+        <v>0.9924990235381718</v>
       </c>
       <c r="F12">
-        <v>0.9759620638699771</v>
+        <v>1.012507162554743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031128085681571</v>
+        <v>1.043672017910514</v>
       </c>
       <c r="J12">
-        <v>0.9943064221604964</v>
+        <v>1.013805485336065</v>
       </c>
       <c r="K12">
-        <v>1.005237400522599</v>
+        <v>1.025722497233336</v>
       </c>
       <c r="L12">
-        <v>0.9915284150343119</v>
+        <v>1.007771355324197</v>
       </c>
       <c r="M12">
-        <v>0.9915647521456459</v>
+        <v>1.027398604811256</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9633203519196993</v>
+        <v>0.9836984380084434</v>
       </c>
       <c r="D13">
-        <v>0.9902693845057287</v>
+        <v>1.011134118894714</v>
       </c>
       <c r="E13">
-        <v>0.9763283418284507</v>
+        <v>0.992847386429154</v>
       </c>
       <c r="F13">
-        <v>0.9764269577307059</v>
+        <v>1.012874480290149</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031311058634364</v>
+        <v>1.043838070717973</v>
       </c>
       <c r="J13">
-        <v>0.9946638355106273</v>
+        <v>1.014113888818057</v>
       </c>
       <c r="K13">
-        <v>1.00554074318545</v>
+        <v>1.026007742589559</v>
       </c>
       <c r="L13">
-        <v>0.991877940550879</v>
+        <v>1.0080684148976</v>
       </c>
       <c r="M13">
-        <v>0.9919745514703618</v>
+        <v>1.027715893285371</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9648806106014348</v>
+        <v>0.9850763320067069</v>
       </c>
       <c r="D14">
-        <v>0.9914269033794301</v>
+        <v>1.012226602904764</v>
       </c>
       <c r="E14">
-        <v>0.9776436518028997</v>
+        <v>0.9939841754770271</v>
       </c>
       <c r="F14">
-        <v>0.977942825256314</v>
+        <v>1.014073116910981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03190715693666</v>
+        <v>1.044379443912434</v>
       </c>
       <c r="J14">
-        <v>0.9958289303661774</v>
+        <v>1.015119969699024</v>
       </c>
       <c r="K14">
-        <v>1.006529511002853</v>
+        <v>1.026938240480667</v>
       </c>
       <c r="L14">
-        <v>0.9930174019276675</v>
+        <v>1.009037559327617</v>
       </c>
       <c r="M14">
-        <v>0.9933105833171151</v>
+        <v>1.028751054367878</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9658359253385612</v>
+        <v>0.9859207599200269</v>
       </c>
       <c r="D15">
-        <v>0.9921358250871709</v>
+        <v>1.01289628240192</v>
       </c>
       <c r="E15">
-        <v>0.978449245314883</v>
+        <v>0.994681070963653</v>
       </c>
       <c r="F15">
-        <v>0.9788712190451402</v>
+        <v>1.014807922242108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032271841448463</v>
+        <v>1.044710947287747</v>
       </c>
       <c r="J15">
-        <v>0.9965422530479128</v>
+        <v>1.015736498675179</v>
       </c>
       <c r="K15">
-        <v>1.007134825938922</v>
+        <v>1.027508423937581</v>
       </c>
       <c r="L15">
-        <v>0.9937150907907055</v>
+        <v>1.009631506649741</v>
       </c>
       <c r="M15">
-        <v>0.9941286908671535</v>
+        <v>1.02938547604488</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9713077291743556</v>
+        <v>0.9907685261617422</v>
       </c>
       <c r="D16">
-        <v>0.9961991364149516</v>
+        <v>1.016743162905188</v>
       </c>
       <c r="E16">
-        <v>0.9830671967539331</v>
+        <v>0.9986851764346317</v>
       </c>
       <c r="F16">
-        <v>0.984192629845216</v>
+        <v>1.019029760997978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034356129121008</v>
+        <v>1.046609892860133</v>
       </c>
       <c r="J16">
-        <v>1.000627262809413</v>
+        <v>1.019275281136738</v>
       </c>
       <c r="K16">
-        <v>1.010600476764574</v>
+        <v>1.030780744645603</v>
       </c>
       <c r="L16">
-        <v>0.9977114604885539</v>
+        <v>1.013041463392534</v>
       </c>
       <c r="M16">
-        <v>0.9988157429068912</v>
+        <v>1.033028027871292</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9746654217811803</v>
+        <v>0.9937524471382811</v>
       </c>
       <c r="D17">
-        <v>0.998694782648058</v>
+        <v>1.019112921541962</v>
       </c>
       <c r="E17">
-        <v>0.9859040339601058</v>
+        <v>1.001152583182924</v>
       </c>
       <c r="F17">
-        <v>0.9874612605456093</v>
+        <v>1.021631260823663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035631057065058</v>
+        <v>1.047775002511775</v>
       </c>
       <c r="J17">
-        <v>1.003133230775902</v>
+        <v>1.021452844880798</v>
       </c>
       <c r="K17">
-        <v>1.012725735820761</v>
+        <v>1.03279393043594</v>
       </c>
       <c r="L17">
-        <v>1.000163814587864</v>
+        <v>1.015140433576541</v>
       </c>
       <c r="M17">
-        <v>1.001692770078754</v>
+        <v>1.035270355853173</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765982723640324</v>
+        <v>0.9954732259396701</v>
       </c>
       <c r="D18">
-        <v>1.000132139051522</v>
+        <v>1.020480159944494</v>
       </c>
       <c r="E18">
-        <v>0.9875381120493196</v>
+        <v>1.002576452308845</v>
       </c>
       <c r="F18">
-        <v>0.9893439629569533</v>
+        <v>1.023132480791185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036363469434364</v>
+        <v>1.048445527743574</v>
       </c>
       <c r="J18">
-        <v>1.004575482253464</v>
+        <v>1.022708346943352</v>
       </c>
       <c r="K18">
-        <v>1.013948591993083</v>
+        <v>1.033954501320623</v>
       </c>
       <c r="L18">
-        <v>1.001575477862711</v>
+        <v>1.016350860536519</v>
       </c>
       <c r="M18">
-        <v>1.003349204014149</v>
+        <v>1.036563516587461</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9772530895152211</v>
+        <v>0.996056702485828</v>
       </c>
       <c r="D19">
-        <v>1.000619210627848</v>
+        <v>1.020943862632498</v>
       </c>
       <c r="E19">
-        <v>0.9880918842507145</v>
+        <v>1.003059411670423</v>
       </c>
       <c r="F19">
-        <v>0.9899819771917476</v>
+        <v>1.023641671275365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03661134102575</v>
+        <v>1.048672651570785</v>
       </c>
       <c r="J19">
-        <v>1.005064037381545</v>
+        <v>1.023134011249722</v>
       </c>
       <c r="K19">
-        <v>1.014362778152545</v>
+        <v>1.034347952836468</v>
       </c>
       <c r="L19">
-        <v>1.002053716290893</v>
+        <v>1.016761282706367</v>
       </c>
       <c r="M19">
-        <v>1.003910419267217</v>
+        <v>1.037002001735864</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9743078519229107</v>
+        <v>0.9934343556366861</v>
       </c>
       <c r="D20">
-        <v>0.9984289358570405</v>
+        <v>1.018860233615642</v>
       </c>
       <c r="E20">
-        <v>0.9856018202628446</v>
+        <v>1.000889452791174</v>
       </c>
       <c r="F20">
-        <v>0.9871130578135874</v>
+        <v>1.021353833521475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035495441442505</v>
+        <v>1.047650941819234</v>
       </c>
       <c r="J20">
-        <v>1.002866394258789</v>
+        <v>1.021220739245758</v>
       </c>
       <c r="K20">
-        <v>1.012499466902035</v>
+        <v>1.03257936190186</v>
       </c>
       <c r="L20">
-        <v>0.9999026588952865</v>
+        <v>1.014916680253827</v>
       </c>
       <c r="M20">
-        <v>1.001386357832392</v>
+        <v>1.035031313772874</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9644224138286848</v>
+        <v>0.9846715271695671</v>
       </c>
       <c r="D21">
-        <v>0.9910869365836705</v>
+        <v>1.011905613119027</v>
       </c>
       <c r="E21">
-        <v>0.9772573345754817</v>
+        <v>0.9936501561646812</v>
       </c>
       <c r="F21">
-        <v>0.9774976103530139</v>
+        <v>1.013720926163398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031732163723451</v>
+        <v>1.044220453026849</v>
       </c>
       <c r="J21">
-        <v>0.9954867886113695</v>
+        <v>1.014824405610557</v>
       </c>
       <c r="K21">
-        <v>1.006239160336599</v>
+        <v>1.026664886796639</v>
       </c>
       <c r="L21">
-        <v>0.992682775090829</v>
+        <v>1.008752835218521</v>
       </c>
       <c r="M21">
-        <v>0.9929182171305301</v>
+        <v>1.028446932006174</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.957947779830031</v>
+        <v>0.9789659854010263</v>
       </c>
       <c r="D22">
-        <v>0.9862867356414727</v>
+        <v>1.007384479713592</v>
       </c>
       <c r="E22">
-        <v>0.9718032227361697</v>
+        <v>0.9889465293566245</v>
       </c>
       <c r="F22">
-        <v>0.9712112403287453</v>
+        <v>1.008761324304501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02925412571236</v>
+        <v>1.041974694314946</v>
       </c>
       <c r="J22">
-        <v>0.9906514466832517</v>
+        <v>1.010657970810475</v>
       </c>
       <c r="K22">
-        <v>1.002134839366498</v>
+        <v>1.02281105442754</v>
       </c>
       <c r="L22">
-        <v>0.9879547508565907</v>
+        <v>1.004740184602578</v>
       </c>
       <c r="M22">
-        <v>0.9873754254682143</v>
+        <v>1.02416119303081</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.961406173201933</v>
+        <v>0.9820101462854773</v>
       </c>
       <c r="D23">
-        <v>0.9888498534199524</v>
+        <v>1.009795984531566</v>
       </c>
       <c r="E23">
-        <v>0.9747153861349774</v>
+        <v>0.9914551394583571</v>
       </c>
       <c r="F23">
-        <v>0.9745679545815957</v>
+        <v>1.011406474147616</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03057895306668</v>
+        <v>1.043174012236722</v>
       </c>
       <c r="J23">
-        <v>0.9932343553836055</v>
+        <v>1.012881075532083</v>
       </c>
       <c r="K23">
-        <v>1.004327463117677</v>
+        <v>1.024867471708369</v>
       </c>
       <c r="L23">
-        <v>0.9904800760624107</v>
+        <v>1.006881007756554</v>
       </c>
       <c r="M23">
-        <v>0.9903356968955657</v>
+        <v>1.026447645123401</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9744695012722514</v>
+        <v>0.993578148151714</v>
       </c>
       <c r="D24">
-        <v>0.9985491169680997</v>
+        <v>1.018974458632043</v>
       </c>
       <c r="E24">
-        <v>0.985738441056573</v>
+        <v>1.001008397308929</v>
       </c>
       <c r="F24">
-        <v>0.98727046902291</v>
+        <v>1.021479240858197</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035556754900856</v>
+        <v>1.047707027438798</v>
       </c>
       <c r="J24">
-        <v>1.002987026048022</v>
+        <v>1.021325662878179</v>
       </c>
       <c r="K24">
-        <v>1.012601759735914</v>
+        <v>1.032676358356153</v>
       </c>
       <c r="L24">
-        <v>1.000020721658813</v>
+        <v>1.015017827472364</v>
       </c>
       <c r="M24">
-        <v>1.001524879114576</v>
+        <v>1.035139372048441</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9886331455576591</v>
+        <v>1.00623671081383</v>
       </c>
       <c r="D25">
-        <v>1.00909301313026</v>
+        <v>1.029042156079586</v>
       </c>
       <c r="E25">
-        <v>0.9977297678854229</v>
+        <v>1.011498445407182</v>
       </c>
       <c r="F25">
-        <v>1.001085270246593</v>
+        <v>1.032538557067713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040896442556448</v>
+        <v>1.052614541189573</v>
       </c>
       <c r="J25">
-        <v>1.013549199935325</v>
+        <v>1.030555992388845</v>
       </c>
       <c r="K25">
-        <v>1.021551792864569</v>
+        <v>1.041205758347878</v>
       </c>
       <c r="L25">
-        <v>1.010363428809428</v>
+        <v>1.02392084713052</v>
       </c>
       <c r="M25">
-        <v>1.013666762121366</v>
+        <v>1.044651912126898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015799094450695</v>
+        <v>0.9997374061075456</v>
       </c>
       <c r="D2">
-        <v>1.036661605619388</v>
+        <v>1.01716117765869</v>
       </c>
       <c r="E2">
-        <v>1.019447179660432</v>
+        <v>1.006225238771742</v>
       </c>
       <c r="F2">
-        <v>1.040917489205014</v>
+        <v>0.9765787512845657</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056276697279493</v>
+        <v>1.042992725647497</v>
       </c>
       <c r="J2">
-        <v>1.037517311738297</v>
+        <v>1.021925974151495</v>
       </c>
       <c r="K2">
-        <v>1.047632763720362</v>
+        <v>1.02838649717498</v>
       </c>
       <c r="L2">
-        <v>1.03064207296318</v>
+        <v>1.017598522107751</v>
       </c>
       <c r="M2">
-        <v>1.051834757515002</v>
+        <v>0.9883743211878853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022467829347763</v>
+        <v>1.004151515626446</v>
       </c>
       <c r="D3">
-        <v>1.04198147623889</v>
+        <v>1.020344672572041</v>
       </c>
       <c r="E3">
-        <v>1.02500282651083</v>
+        <v>1.009738003615326</v>
       </c>
       <c r="F3">
-        <v>1.046773052490311</v>
+        <v>0.9836668015950556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05880337495966</v>
+        <v>1.044456183463142</v>
       </c>
       <c r="J3">
-        <v>1.042364189869623</v>
+        <v>1.024529642402556</v>
       </c>
       <c r="K3">
-        <v>1.052103961522621</v>
+        <v>1.03072369260015</v>
       </c>
       <c r="L3">
-        <v>1.035325482373027</v>
+        <v>1.020247782858144</v>
       </c>
       <c r="M3">
-        <v>1.056840497347448</v>
+        <v>0.9945130243849997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026666235321489</v>
+        <v>1.006943876407566</v>
       </c>
       <c r="D4">
-        <v>1.045332897876495</v>
+        <v>1.022360408618694</v>
       </c>
       <c r="E4">
-        <v>1.028505593021205</v>
+        <v>1.011965836365332</v>
       </c>
       <c r="F4">
-        <v>1.050464530901565</v>
+        <v>0.9881384827196324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060381074581613</v>
+        <v>1.04537014086646</v>
       </c>
       <c r="J4">
-        <v>1.045411567319678</v>
+        <v>1.026171609684597</v>
       </c>
       <c r="K4">
-        <v>1.054913330138394</v>
+        <v>1.032196250490328</v>
       </c>
       <c r="L4">
-        <v>1.03827173559109</v>
+        <v>1.021921957957716</v>
       </c>
       <c r="M4">
-        <v>1.059989779680891</v>
+        <v>0.9983822058043175</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028404700493749</v>
+        <v>1.008103082416766</v>
       </c>
       <c r="D5">
-        <v>1.046721091880965</v>
+        <v>1.023197610306831</v>
       </c>
       <c r="E5">
-        <v>1.029957163819798</v>
+        <v>1.012892008423671</v>
       </c>
       <c r="F5">
-        <v>1.051994209599965</v>
+        <v>0.9899922961099986</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061031186319341</v>
+        <v>1.04574668740034</v>
       </c>
       <c r="J5">
-        <v>1.046672389789903</v>
+        <v>1.026852008740549</v>
       </c>
       <c r="K5">
-        <v>1.056075228610405</v>
+        <v>1.03280610624713</v>
       </c>
       <c r="L5">
-        <v>1.039491108232887</v>
+        <v>1.022616526716479</v>
       </c>
       <c r="M5">
-        <v>1.061293234589227</v>
+        <v>0.9999853501483668</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028695078548036</v>
+        <v>1.00829687245444</v>
       </c>
       <c r="D6">
-        <v>1.046952987528814</v>
+        <v>1.023337591491053</v>
       </c>
       <c r="E6">
-        <v>1.030199687327714</v>
+        <v>1.013046917680464</v>
       </c>
       <c r="F6">
-        <v>1.05224977737238</v>
+        <v>0.9903020687661559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061139586820618</v>
+        <v>1.045809466893477</v>
       </c>
       <c r="J6">
-        <v>1.04688292456372</v>
+        <v>1.02696568112157</v>
       </c>
       <c r="K6">
-        <v>1.056269217901856</v>
+        <v>1.032907972488713</v>
       </c>
       <c r="L6">
-        <v>1.039694744322666</v>
+        <v>1.022732614662628</v>
       </c>
       <c r="M6">
-        <v>1.061510915451393</v>
+        <v>1.000253182549991</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026689567309788</v>
+        <v>1.006959422794458</v>
       </c>
       <c r="D7">
-        <v>1.045351527211025</v>
+        <v>1.02237163501084</v>
       </c>
       <c r="E7">
-        <v>1.028525070121784</v>
+        <v>1.011978252305021</v>
       </c>
       <c r="F7">
-        <v>1.050485056433216</v>
+        <v>0.9881633541780707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060389812393914</v>
+        <v>1.04537520220164</v>
       </c>
       <c r="J7">
-        <v>1.045428492989746</v>
+        <v>1.026180739589879</v>
       </c>
       <c r="K7">
-        <v>1.054928929625054</v>
+        <v>1.032204435193006</v>
       </c>
       <c r="L7">
-        <v>1.038288103294477</v>
+        <v>1.021931274748822</v>
       </c>
       <c r="M7">
-        <v>1.06000727582032</v>
+        <v>0.9984037177631407</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018077864604102</v>
+        <v>1.001242762849112</v>
       </c>
       <c r="D8">
-        <v>1.038478935484117</v>
+        <v>1.018246434444629</v>
       </c>
       <c r="E8">
-        <v>1.021344470324101</v>
+        <v>1.007421995219048</v>
       </c>
       <c r="F8">
-        <v>1.042917281144471</v>
+        <v>0.9789988241120107</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057142792377066</v>
+        <v>1.043494276492308</v>
       </c>
       <c r="J8">
-        <v>1.039174354010068</v>
+        <v>1.022814976516861</v>
       </c>
       <c r="K8">
-        <v>1.04916173980347</v>
+        <v>1.029184790760538</v>
       </c>
       <c r="L8">
-        <v>1.032242875401606</v>
+        <v>1.018502360729146</v>
       </c>
       <c r="M8">
-        <v>1.05354567464499</v>
+        <v>0.9904709902285949</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001940434375436</v>
+        <v>0.9906518763748373</v>
       </c>
       <c r="D9">
-        <v>1.02562263567177</v>
+        <v>1.010621081518541</v>
       </c>
       <c r="E9">
-        <v>1.007933982413036</v>
+        <v>0.9990279933154944</v>
       </c>
       <c r="F9">
-        <v>1.028780830331327</v>
+        <v>0.9619025425365383</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050955927442306</v>
+        <v>1.03991653791375</v>
       </c>
       <c r="J9">
-        <v>1.027424856490641</v>
+        <v>1.016539115268016</v>
       </c>
       <c r="K9">
-        <v>1.038313245167624</v>
+        <v>1.023544157745859</v>
       </c>
       <c r="L9">
-        <v>1.020899634566098</v>
+        <v>1.012136860359833</v>
       </c>
       <c r="M9">
-        <v>1.041423600201396</v>
+        <v>0.9756455243480863</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9904285908587351</v>
+        <v>0.9832005740191508</v>
       </c>
       <c r="D10">
-        <v>1.016473285104701</v>
+        <v>1.005271166380434</v>
       </c>
       <c r="E10">
-        <v>0.998404217566412</v>
+        <v>0.9931569934407428</v>
       </c>
       <c r="F10">
-        <v>1.018733529211459</v>
+        <v>0.9497626741695528</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046476974929873</v>
+        <v>1.037338240525989</v>
       </c>
       <c r="J10">
-        <v>1.019027174157459</v>
+        <v>1.012096944912356</v>
       </c>
       <c r="K10">
-        <v>1.030551345678046</v>
+        <v>1.019545896062216</v>
       </c>
       <c r="L10">
-        <v>1.012802344257238</v>
+        <v>1.007650909520652</v>
       </c>
       <c r="M10">
-        <v>1.03277258598648</v>
+        <v>0.9651023528024009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9852377852703453</v>
+        <v>0.9798707627243046</v>
       </c>
       <c r="D11">
-        <v>1.012354635076229</v>
+        <v>1.002884748458766</v>
       </c>
       <c r="E11">
-        <v>0.9941174075023085</v>
+        <v>0.9905422587066818</v>
       </c>
       <c r="F11">
-        <v>1.014213596821922</v>
+        <v>0.9443029449050006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044442842939318</v>
+        <v>1.036171974766125</v>
       </c>
       <c r="J11">
-        <v>1.015237851316005</v>
+        <v>1.010105598135591</v>
       </c>
       <c r="K11">
-        <v>1.0270472624157</v>
+        <v>1.01775246693033</v>
       </c>
       <c r="L11">
-        <v>1.009151120157989</v>
+        <v>1.005644765716571</v>
       </c>
       <c r="M11">
-        <v>1.028872352854818</v>
+        <v>0.9603576410235444</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.98327607844603</v>
+        <v>0.9786173930227644</v>
       </c>
       <c r="D12">
-        <v>1.01079931103183</v>
+        <v>1.00198720065988</v>
       </c>
       <c r="E12">
-        <v>0.9924990235381718</v>
+        <v>0.9895594417496575</v>
       </c>
       <c r="F12">
-        <v>1.012507162554743</v>
+        <v>0.9422418457000327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043672017910514</v>
+        <v>1.035730901963436</v>
       </c>
       <c r="J12">
-        <v>1.013805485336065</v>
+        <v>1.009355105241431</v>
       </c>
       <c r="K12">
-        <v>1.025722497233336</v>
+        <v>1.01707642781424</v>
       </c>
       <c r="L12">
-        <v>1.007771355324197</v>
+        <v>1.004889437680964</v>
       </c>
       <c r="M12">
-        <v>1.027398604811256</v>
+        <v>0.9585660705379514</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9836984380084434</v>
+        <v>0.9788870101761488</v>
       </c>
       <c r="D13">
-        <v>1.011134118894714</v>
+        <v>1.002180241909936</v>
       </c>
       <c r="E13">
-        <v>0.992847386429154</v>
+        <v>0.9897707954392682</v>
       </c>
       <c r="F13">
-        <v>1.012874480290149</v>
+        <v>0.9426855018658542</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043838070717973</v>
+        <v>1.035825876213121</v>
       </c>
       <c r="J13">
-        <v>1.014113888818057</v>
+        <v>1.009516588712594</v>
       </c>
       <c r="K13">
-        <v>1.026007742589559</v>
+        <v>1.0172218968319</v>
       </c>
       <c r="L13">
-        <v>1.0080684148976</v>
+        <v>1.005051927761709</v>
       </c>
       <c r="M13">
-        <v>1.027715893285371</v>
+        <v>0.9589517268676055</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9850763320067069</v>
+        <v>0.9797675021126764</v>
       </c>
       <c r="D14">
-        <v>1.012226602904764</v>
+        <v>1.002810787683455</v>
       </c>
       <c r="E14">
-        <v>0.9939841754770271</v>
+        <v>0.9904612593426619</v>
       </c>
       <c r="F14">
-        <v>1.014073116910981</v>
+        <v>0.9441332653714201</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044379443912434</v>
+        <v>1.036135678422316</v>
       </c>
       <c r="J14">
-        <v>1.015119969699024</v>
+        <v>1.010043786657977</v>
       </c>
       <c r="K14">
-        <v>1.026938240480667</v>
+        <v>1.017696790181217</v>
       </c>
       <c r="L14">
-        <v>1.009037559327617</v>
+        <v>1.0055825408536</v>
       </c>
       <c r="M14">
-        <v>1.028751054367878</v>
+        <v>0.9602101580445458</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9859207599200269</v>
+        <v>0.9803077803991462</v>
       </c>
       <c r="D15">
-        <v>1.01289628240192</v>
+        <v>1.003197793670887</v>
       </c>
       <c r="E15">
-        <v>0.994681070963653</v>
+        <v>0.9908851197803533</v>
       </c>
       <c r="F15">
-        <v>1.014807922242108</v>
+        <v>0.9450208097490504</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044710947287747</v>
+        <v>1.036325502963272</v>
       </c>
       <c r="J15">
-        <v>1.015736498675179</v>
+        <v>1.010367157572373</v>
       </c>
       <c r="K15">
-        <v>1.027508423937581</v>
+        <v>1.017988061432466</v>
       </c>
       <c r="L15">
-        <v>1.009631506649741</v>
+        <v>1.005908104712052</v>
       </c>
       <c r="M15">
-        <v>1.02938547604488</v>
+        <v>0.96098158293516</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9907685261617422</v>
+        <v>0.9834193016604823</v>
       </c>
       <c r="D16">
-        <v>1.016743162905188</v>
+        <v>1.005428020619706</v>
       </c>
       <c r="E16">
-        <v>0.9986851764346317</v>
+        <v>0.9933289388583572</v>
       </c>
       <c r="F16">
-        <v>1.019029760997978</v>
+        <v>0.9501205241020373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046609892860133</v>
+        <v>1.037414559831353</v>
       </c>
       <c r="J16">
-        <v>1.019275281136738</v>
+        <v>1.012227622490204</v>
       </c>
       <c r="K16">
-        <v>1.030780744645603</v>
+        <v>1.019663565420652</v>
       </c>
       <c r="L16">
-        <v>1.013041463392534</v>
+        <v>1.007782659765414</v>
       </c>
       <c r="M16">
-        <v>1.033028027871292</v>
+        <v>0.9654132794800891</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9937524471382811</v>
+        <v>0.9853427274778458</v>
       </c>
       <c r="D17">
-        <v>1.019112921541962</v>
+        <v>1.006807850604202</v>
       </c>
       <c r="E17">
-        <v>1.001152583182924</v>
+        <v>0.9948419910187212</v>
       </c>
       <c r="F17">
-        <v>1.021631260823663</v>
+        <v>0.9532633203004307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047775002511775</v>
+        <v>1.038084093245273</v>
       </c>
       <c r="J17">
-        <v>1.021452844880798</v>
+        <v>1.013376053672019</v>
       </c>
       <c r="K17">
-        <v>1.03279393043594</v>
+        <v>1.020697557257868</v>
       </c>
       <c r="L17">
-        <v>1.015140433576541</v>
+        <v>1.008941067309695</v>
       </c>
       <c r="M17">
-        <v>1.035270355853173</v>
+        <v>0.9681436340153141</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9954732259396701</v>
+        <v>0.9864547299327987</v>
       </c>
       <c r="D18">
-        <v>1.020480159944494</v>
+        <v>1.007605986076971</v>
       </c>
       <c r="E18">
-        <v>1.002576452308845</v>
+        <v>0.9957175780368072</v>
       </c>
       <c r="F18">
-        <v>1.023132480791185</v>
+        <v>0.9550770555619553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048445527743574</v>
+        <v>1.038469838890904</v>
       </c>
       <c r="J18">
-        <v>1.022708346943352</v>
+        <v>1.014039411947224</v>
       </c>
       <c r="K18">
-        <v>1.033954501320623</v>
+        <v>1.02129470925078</v>
       </c>
       <c r="L18">
-        <v>1.016350860536519</v>
+        <v>1.009610643373293</v>
       </c>
       <c r="M18">
-        <v>1.036563516587461</v>
+        <v>0.9697190511396145</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.996056702485828</v>
+        <v>0.9868322439353321</v>
       </c>
       <c r="D19">
-        <v>1.020943862632498</v>
+        <v>1.007877012068057</v>
       </c>
       <c r="E19">
-        <v>1.003059411670423</v>
+        <v>0.9960149715095336</v>
       </c>
       <c r="F19">
-        <v>1.023641671275365</v>
+        <v>0.9556922754304843</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048672651570785</v>
+        <v>1.038600568095763</v>
       </c>
       <c r="J19">
-        <v>1.023134011249722</v>
+        <v>1.014264515068701</v>
       </c>
       <c r="K19">
-        <v>1.034347952836468</v>
+        <v>1.02149732770861</v>
       </c>
       <c r="L19">
-        <v>1.016761282706367</v>
+        <v>1.009837933205662</v>
       </c>
       <c r="M19">
-        <v>1.037002001735864</v>
+        <v>0.9702533816291109</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934343556366861</v>
+        <v>0.9851373929786519</v>
       </c>
       <c r="D20">
-        <v>1.018860233615642</v>
+        <v>1.006660504869432</v>
       </c>
       <c r="E20">
-        <v>1.000889452791174</v>
+        <v>0.9946803785592064</v>
       </c>
       <c r="F20">
-        <v>1.021353833521475</v>
+        <v>0.9529281530002728</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047650941819234</v>
+        <v>1.038012755897579</v>
       </c>
       <c r="J20">
-        <v>1.021220739245758</v>
+        <v>1.0132535147452</v>
       </c>
       <c r="K20">
-        <v>1.03257936190186</v>
+        <v>1.020587239731486</v>
       </c>
       <c r="L20">
-        <v>1.014916680253827</v>
+        <v>1.008817416522131</v>
       </c>
       <c r="M20">
-        <v>1.035031313772874</v>
+        <v>0.9678524821979635</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9846715271695671</v>
+        <v>0.9795086839898465</v>
       </c>
       <c r="D21">
-        <v>1.011905613119027</v>
+        <v>1.00262542013831</v>
       </c>
       <c r="E21">
-        <v>0.9936501561646812</v>
+        <v>0.9902582606581155</v>
       </c>
       <c r="F21">
-        <v>1.013720926163398</v>
+        <v>0.9437078715334022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044220453026849</v>
+        <v>1.036044669878026</v>
       </c>
       <c r="J21">
-        <v>1.014824405610557</v>
+        <v>1.009888843937268</v>
       </c>
       <c r="K21">
-        <v>1.026664886796639</v>
+        <v>1.017557223259457</v>
       </c>
       <c r="L21">
-        <v>1.008752835218521</v>
+        <v>1.005426573895227</v>
       </c>
       <c r="M21">
-        <v>1.028446932006174</v>
+        <v>0.9598404057597202</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9789659854010263</v>
+        <v>0.9758734910559523</v>
       </c>
       <c r="D22">
-        <v>1.007384479713592</v>
+        <v>1.00002367619533</v>
       </c>
       <c r="E22">
-        <v>0.9889465293566245</v>
+        <v>0.9874104667546917</v>
       </c>
       <c r="F22">
-        <v>1.008761324304501</v>
+        <v>0.9377176243098435</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041974694314946</v>
+        <v>1.034761508149682</v>
       </c>
       <c r="J22">
-        <v>1.010657970810475</v>
+        <v>1.007710398477083</v>
       </c>
       <c r="K22">
-        <v>1.02281105442754</v>
+        <v>1.015594664070265</v>
       </c>
       <c r="L22">
-        <v>1.004740184602578</v>
+        <v>1.003235519447206</v>
       </c>
       <c r="M22">
-        <v>1.02416119303081</v>
+        <v>0.9546328250159756</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9820101462854773</v>
+        <v>0.9778100535944464</v>
       </c>
       <c r="D23">
-        <v>1.009795984531566</v>
+        <v>1.00140927059224</v>
       </c>
       <c r="E23">
-        <v>0.9914551394583571</v>
+        <v>0.9889267745451943</v>
       </c>
       <c r="F23">
-        <v>1.011406474147616</v>
+        <v>0.940912418005119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043174012236722</v>
+        <v>1.035446209723996</v>
       </c>
       <c r="J23">
-        <v>1.012881075532083</v>
+        <v>1.008871424012047</v>
       </c>
       <c r="K23">
-        <v>1.024867471708369</v>
+        <v>1.016640695642406</v>
       </c>
       <c r="L23">
-        <v>1.006881007756554</v>
+        <v>1.004402851441636</v>
       </c>
       <c r="M23">
-        <v>1.026447645123401</v>
+        <v>0.9574103880903223</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.993578148151714</v>
+        <v>0.9852302053184484</v>
       </c>
       <c r="D24">
-        <v>1.018974458632043</v>
+        <v>1.006727104711313</v>
       </c>
       <c r="E24">
-        <v>1.001008397308929</v>
+        <v>0.9947534257026887</v>
       </c>
       <c r="F24">
-        <v>1.021479240858197</v>
+        <v>0.9530796604495346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047707027438798</v>
+        <v>1.038045004923662</v>
       </c>
       <c r="J24">
-        <v>1.021325662878179</v>
+        <v>1.013308904859574</v>
       </c>
       <c r="K24">
-        <v>1.032676358356153</v>
+        <v>1.020637105845201</v>
       </c>
       <c r="L24">
-        <v>1.015017827472364</v>
+        <v>1.008873307809026</v>
       </c>
       <c r="M24">
-        <v>1.035139372048441</v>
+        <v>0.9679840940142294</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00623671081383</v>
+        <v>0.9934553890534347</v>
       </c>
       <c r="D25">
-        <v>1.029042156079586</v>
+        <v>1.012637263624669</v>
       </c>
       <c r="E25">
-        <v>1.011498445407182</v>
+        <v>1.001244215752948</v>
       </c>
       <c r="F25">
-        <v>1.032538557067713</v>
+        <v>0.9664448207936643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052614541189573</v>
+        <v>1.040874247763243</v>
       </c>
       <c r="J25">
-        <v>1.030555992388845</v>
+        <v>1.018205030827136</v>
       </c>
       <c r="K25">
-        <v>1.041205758347878</v>
+        <v>1.025042519427553</v>
       </c>
       <c r="L25">
-        <v>1.02392084713052</v>
+        <v>1.013823247531177</v>
       </c>
       <c r="M25">
-        <v>1.044651912126898</v>
+        <v>0.9795873748161913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9997374061075456</v>
+        <v>1.026462783288294</v>
       </c>
       <c r="D2">
-        <v>1.01716117765869</v>
+        <v>1.030756564931889</v>
       </c>
       <c r="E2">
-        <v>1.006225238771742</v>
+        <v>1.026685550906304</v>
       </c>
       <c r="F2">
-        <v>0.9765787512845657</v>
+        <v>1.024979714447531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042992725647497</v>
+        <v>1.033926948399888</v>
       </c>
       <c r="J2">
-        <v>1.021925974151495</v>
+        <v>1.031626087283112</v>
       </c>
       <c r="K2">
-        <v>1.02838649717498</v>
+        <v>1.033566654395866</v>
       </c>
       <c r="L2">
-        <v>1.017598522107751</v>
+        <v>1.029507475098478</v>
       </c>
       <c r="M2">
-        <v>0.9883743211878853</v>
+        <v>1.02780662802701</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004151515626446</v>
+        <v>1.027365618354493</v>
       </c>
       <c r="D3">
-        <v>1.020344672572041</v>
+        <v>1.031420536549801</v>
       </c>
       <c r="E3">
-        <v>1.009738003615326</v>
+        <v>1.027450649110859</v>
       </c>
       <c r="F3">
-        <v>0.9836668015950556</v>
+        <v>1.026516456930325</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044456183463142</v>
+        <v>1.034157352540494</v>
       </c>
       <c r="J3">
-        <v>1.024529642402556</v>
+        <v>1.032168932923749</v>
       </c>
       <c r="K3">
-        <v>1.03072369260015</v>
+        <v>1.03403943531443</v>
       </c>
       <c r="L3">
-        <v>1.020247782858144</v>
+        <v>1.030080254816403</v>
       </c>
       <c r="M3">
-        <v>0.9945130243849997</v>
+        <v>1.029148595215377</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006943876407566</v>
+        <v>1.027949773309699</v>
       </c>
       <c r="D4">
-        <v>1.022360408618694</v>
+        <v>1.031850051738741</v>
       </c>
       <c r="E4">
-        <v>1.011965836365332</v>
+        <v>1.027946071304067</v>
       </c>
       <c r="F4">
-        <v>0.9881384827196324</v>
+        <v>1.027510787652378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04537014086646</v>
+        <v>1.034305009878391</v>
       </c>
       <c r="J4">
-        <v>1.026171609684597</v>
+        <v>1.032519535329838</v>
       </c>
       <c r="K4">
-        <v>1.032196250490328</v>
+        <v>1.034344556731738</v>
       </c>
       <c r="L4">
-        <v>1.021921957957716</v>
+        <v>1.03045057565342</v>
       </c>
       <c r="M4">
-        <v>0.9983822058043175</v>
+        <v>1.030016411982709</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008103082416766</v>
+        <v>1.028195342375544</v>
       </c>
       <c r="D5">
-        <v>1.023197610306831</v>
+        <v>1.032030590756867</v>
       </c>
       <c r="E5">
-        <v>1.012892008423671</v>
+        <v>1.028154430534757</v>
       </c>
       <c r="F5">
-        <v>0.9899922961099986</v>
+        <v>1.027928798395322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04574668740034</v>
+        <v>1.034366742579107</v>
       </c>
       <c r="J5">
-        <v>1.026852008740549</v>
+        <v>1.032666771611646</v>
       </c>
       <c r="K5">
-        <v>1.03280610624713</v>
+        <v>1.034472638060112</v>
       </c>
       <c r="L5">
-        <v>1.022616526716479</v>
+        <v>1.030606184957996</v>
       </c>
       <c r="M5">
-        <v>0.9999853501483668</v>
+        <v>1.030381120300874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00829687245444</v>
+        <v>1.028236573929716</v>
       </c>
       <c r="D6">
-        <v>1.023337591491053</v>
+        <v>1.032060902321114</v>
       </c>
       <c r="E6">
-        <v>1.013046917680464</v>
+        <v>1.028189419858084</v>
       </c>
       <c r="F6">
-        <v>0.9903020687661559</v>
+        <v>1.027998984030559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045809466893477</v>
+        <v>1.034377087684035</v>
       </c>
       <c r="J6">
-        <v>1.02696568112157</v>
+        <v>1.03269148402184</v>
       </c>
       <c r="K6">
-        <v>1.032907972488713</v>
+        <v>1.034494132226904</v>
       </c>
       <c r="L6">
-        <v>1.022732614662628</v>
+        <v>1.030632308120709</v>
       </c>
       <c r="M6">
-        <v>1.000253182549991</v>
+        <v>1.030442349403382</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006959422794458</v>
+        <v>1.027953054653821</v>
       </c>
       <c r="D7">
-        <v>1.02237163501084</v>
+        <v>1.031852464225458</v>
       </c>
       <c r="E7">
-        <v>1.011978252305021</v>
+        <v>1.027948855082087</v>
       </c>
       <c r="F7">
-        <v>0.9881633541780707</v>
+        <v>1.027516373149636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04537520220164</v>
+        <v>1.034305836099595</v>
       </c>
       <c r="J7">
-        <v>1.026180739589879</v>
+        <v>1.032521503325231</v>
       </c>
       <c r="K7">
-        <v>1.032204435193006</v>
+        <v>1.034346268914446</v>
       </c>
       <c r="L7">
-        <v>1.021931274748822</v>
+        <v>1.030452655202092</v>
       </c>
       <c r="M7">
-        <v>0.9984037177631407</v>
+        <v>1.030021285706911</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001242762849112</v>
+        <v>1.02676790874472</v>
       </c>
       <c r="D8">
-        <v>1.018246434444629</v>
+        <v>1.030980981428997</v>
       </c>
       <c r="E8">
-        <v>1.007421995219048</v>
+        <v>1.026944046053389</v>
       </c>
       <c r="F8">
-        <v>0.9789988241120107</v>
+        <v>1.025499075819119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043494276492308</v>
+        <v>1.034005110431305</v>
       </c>
       <c r="J8">
-        <v>1.022814976516861</v>
+        <v>1.031809680043489</v>
       </c>
       <c r="K8">
-        <v>1.029184790760538</v>
+        <v>1.033726598258475</v>
       </c>
       <c r="L8">
-        <v>1.018502360729146</v>
+        <v>1.029701111834852</v>
       </c>
       <c r="M8">
-        <v>0.9904709902285949</v>
+        <v>1.028260263395587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9906518763748373</v>
+        <v>1.024679233058536</v>
       </c>
       <c r="D9">
-        <v>1.010621081518541</v>
+        <v>1.029444438179077</v>
       </c>
       <c r="E9">
-        <v>0.9990279933154944</v>
+        <v>1.025176171849323</v>
       </c>
       <c r="F9">
-        <v>0.9619025425365383</v>
+        <v>1.021943787557476</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03991653791375</v>
+        <v>1.033464253587397</v>
       </c>
       <c r="J9">
-        <v>1.016539115268016</v>
+        <v>1.030550346084387</v>
       </c>
       <c r="K9">
-        <v>1.023544157745859</v>
+        <v>1.032628550395407</v>
       </c>
       <c r="L9">
-        <v>1.012136860359833</v>
+        <v>1.028374467392577</v>
       </c>
       <c r="M9">
-        <v>0.9756455243480863</v>
+        <v>1.025152910786019</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9832005740191508</v>
+        <v>1.02328658907272</v>
       </c>
       <c r="D10">
-        <v>1.005271166380434</v>
+        <v>1.028419524776063</v>
       </c>
       <c r="E10">
-        <v>0.9931569934407428</v>
+        <v>1.023999458685187</v>
       </c>
       <c r="F10">
-        <v>0.9497626741695528</v>
+        <v>1.019572925543408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037338240525989</v>
+        <v>1.033096337683155</v>
       </c>
       <c r="J10">
-        <v>1.012096944912356</v>
+        <v>1.029707427672208</v>
       </c>
       <c r="K10">
-        <v>1.019545896062216</v>
+        <v>1.031892427943601</v>
       </c>
       <c r="L10">
-        <v>1.007650909520652</v>
+        <v>1.027488488944157</v>
       </c>
       <c r="M10">
-        <v>0.9651023528024009</v>
+        <v>1.023078261464711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9798707627243046</v>
+        <v>1.022683513287154</v>
       </c>
       <c r="D11">
-        <v>1.002884748458766</v>
+        <v>1.02797560301884</v>
       </c>
       <c r="E11">
-        <v>0.9905422587066818</v>
+        <v>1.023490379221881</v>
       </c>
       <c r="F11">
-        <v>0.9443029449050006</v>
+        <v>1.01854609044973</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036171974766125</v>
+        <v>1.032935285785256</v>
       </c>
       <c r="J11">
-        <v>1.010105598135591</v>
+        <v>1.029341637763392</v>
       </c>
       <c r="K11">
-        <v>1.01775246693033</v>
+        <v>1.031572711507771</v>
       </c>
       <c r="L11">
-        <v>1.005644765716571</v>
+        <v>1.027104486094066</v>
       </c>
       <c r="M11">
-        <v>0.9603576410235444</v>
+        <v>1.022179127920689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9786173930227644</v>
+        <v>1.022459496226218</v>
       </c>
       <c r="D12">
-        <v>1.00198720065988</v>
+        <v>1.027810692120232</v>
       </c>
       <c r="E12">
-        <v>0.9895594417496575</v>
+        <v>1.02330135179908</v>
       </c>
       <c r="F12">
-        <v>0.9422418457000327</v>
+        <v>1.018164636868393</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035730901963436</v>
+        <v>1.032875202322423</v>
       </c>
       <c r="J12">
-        <v>1.009355105241431</v>
+        <v>1.029205646771389</v>
       </c>
       <c r="K12">
-        <v>1.01707642781424</v>
+        <v>1.031453808932986</v>
       </c>
       <c r="L12">
-        <v>1.004889437680964</v>
+        <v>1.026961795162861</v>
       </c>
       <c r="M12">
-        <v>0.9585660705379514</v>
+        <v>1.021845025030466</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9788870101761488</v>
+        <v>1.022507549003476</v>
       </c>
       <c r="D13">
-        <v>1.002180241909936</v>
+        <v>1.027846066900202</v>
       </c>
       <c r="E13">
-        <v>0.9897707954392682</v>
+        <v>1.023341895767205</v>
       </c>
       <c r="F13">
-        <v>0.9426855018658542</v>
+        <v>1.018246461919438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035825876213121</v>
+        <v>1.032888102266611</v>
       </c>
       <c r="J13">
-        <v>1.009516588712594</v>
+        <v>1.02923482274685</v>
       </c>
       <c r="K13">
-        <v>1.0172218968319</v>
+        <v>1.031479320527596</v>
       </c>
       <c r="L13">
-        <v>1.005051927761709</v>
+        <v>1.026992405346208</v>
       </c>
       <c r="M13">
-        <v>0.9589517268676055</v>
+        <v>1.021916696955489</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9797675021126764</v>
+        <v>1.022664996127925</v>
       </c>
       <c r="D14">
-        <v>1.002810787683455</v>
+        <v>1.027961971808578</v>
       </c>
       <c r="E14">
-        <v>0.9904612593426619</v>
+        <v>1.023474752779314</v>
       </c>
       <c r="F14">
-        <v>0.9441332653714201</v>
+        <v>1.018514560254118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036135678422316</v>
+        <v>1.032930324603925</v>
       </c>
       <c r="J14">
-        <v>1.010043786657977</v>
+        <v>1.029330399160586</v>
       </c>
       <c r="K14">
-        <v>1.017696790181217</v>
+        <v>1.031562885954263</v>
       </c>
       <c r="L14">
-        <v>1.0055825408536</v>
+        <v>1.02709269234181</v>
       </c>
       <c r="M14">
-        <v>0.9602101580445458</v>
+        <v>1.022151513443321</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9803077803991462</v>
+        <v>1.022762003453185</v>
       </c>
       <c r="D15">
-        <v>1.003197793670887</v>
+        <v>1.028033382200956</v>
       </c>
       <c r="E15">
-        <v>0.9908851197803533</v>
+        <v>1.023556619309088</v>
       </c>
       <c r="F15">
-        <v>0.9450208097490504</v>
+        <v>1.018679738838269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036325502963272</v>
+        <v>1.032956304515033</v>
       </c>
       <c r="J15">
-        <v>1.010367157572373</v>
+        <v>1.029389270996883</v>
       </c>
       <c r="K15">
-        <v>1.017988061432466</v>
+        <v>1.031614354075604</v>
       </c>
       <c r="L15">
-        <v>1.005908104712052</v>
+        <v>1.027154475163248</v>
       </c>
       <c r="M15">
-        <v>0.96098158293516</v>
+        <v>1.022296174964197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9834193016604823</v>
+        <v>1.02332661212878</v>
       </c>
       <c r="D16">
-        <v>1.005428020619706</v>
+        <v>1.02844898376313</v>
       </c>
       <c r="E16">
-        <v>0.9933289388583572</v>
+        <v>1.024033254031931</v>
       </c>
       <c r="F16">
-        <v>0.9501205241020373</v>
+        <v>1.019641067733963</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037414559831353</v>
+        <v>1.033106989474716</v>
       </c>
       <c r="J16">
-        <v>1.012227622490204</v>
+        <v>1.029731687071125</v>
       </c>
       <c r="K16">
-        <v>1.019663565420652</v>
+        <v>1.031913626035769</v>
       </c>
       <c r="L16">
-        <v>1.007782659765414</v>
+        <v>1.027513966202313</v>
       </c>
       <c r="M16">
-        <v>0.9654132794800891</v>
+        <v>1.023137916788091</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9853427274778458</v>
+        <v>1.023680762319576</v>
       </c>
       <c r="D17">
-        <v>1.006807850604202</v>
+        <v>1.028709645909577</v>
       </c>
       <c r="E17">
-        <v>0.9948419910187212</v>
+        <v>1.024332353912603</v>
       </c>
       <c r="F17">
-        <v>0.9532633203004307</v>
+        <v>1.020244016614213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038084093245273</v>
+        <v>1.033201043875502</v>
       </c>
       <c r="J17">
-        <v>1.013376053672019</v>
+        <v>1.029946261238073</v>
       </c>
       <c r="K17">
-        <v>1.020697557257868</v>
+        <v>1.032101091699155</v>
       </c>
       <c r="L17">
-        <v>1.008941067309695</v>
+        <v>1.027739366937071</v>
       </c>
       <c r="M17">
-        <v>0.9681436340153141</v>
+        <v>1.023665702400573</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9864547299327987</v>
+        <v>1.023887327147217</v>
       </c>
       <c r="D18">
-        <v>1.007605986076971</v>
+        <v>1.028861673391401</v>
       </c>
       <c r="E18">
-        <v>0.9957175780368072</v>
+        <v>1.024506856726434</v>
       </c>
       <c r="F18">
-        <v>0.9550770555619553</v>
+        <v>1.020595684097116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038469838890904</v>
+        <v>1.03325573614442</v>
       </c>
       <c r="J18">
-        <v>1.014039411947224</v>
+        <v>1.030071341469003</v>
       </c>
       <c r="K18">
-        <v>1.02129470925078</v>
+        <v>1.032210343593914</v>
       </c>
       <c r="L18">
-        <v>1.009610643373293</v>
+        <v>1.027870803822565</v>
       </c>
       <c r="M18">
-        <v>0.9697190511396145</v>
+        <v>1.023973474283058</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9868322439353321</v>
+        <v>1.023957759572034</v>
       </c>
       <c r="D19">
-        <v>1.007877012068057</v>
+        <v>1.028913508723978</v>
       </c>
       <c r="E19">
-        <v>0.9960149715095336</v>
+        <v>1.024566364940434</v>
       </c>
       <c r="F19">
-        <v>0.9556922754304843</v>
+        <v>1.020715589998599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038600568095763</v>
+        <v>1.033274356284343</v>
       </c>
       <c r="J19">
-        <v>1.014264515068701</v>
+        <v>1.03011397749354</v>
       </c>
       <c r="K19">
-        <v>1.02149732770861</v>
+        <v>1.032247579776228</v>
       </c>
       <c r="L19">
-        <v>1.009837933205662</v>
+        <v>1.027915614368989</v>
       </c>
       <c r="M19">
-        <v>0.9702533816291109</v>
+        <v>1.024078403710352</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9851373929786519</v>
+        <v>1.023642765872058</v>
       </c>
       <c r="D20">
-        <v>1.006660504869432</v>
+        <v>1.028681680600188</v>
       </c>
       <c r="E20">
-        <v>0.9946803785592064</v>
+        <v>1.024300258883682</v>
       </c>
       <c r="F20">
-        <v>0.9529281530002728</v>
+        <v>1.020179328263743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038012755897579</v>
+        <v>1.033190970112226</v>
       </c>
       <c r="J20">
-        <v>1.0132535147452</v>
+        <v>1.029923247451221</v>
       </c>
       <c r="K20">
-        <v>1.020587239731486</v>
+        <v>1.032080988093563</v>
       </c>
       <c r="L20">
-        <v>1.008817416522131</v>
+        <v>1.02771518724719</v>
       </c>
       <c r="M20">
-        <v>0.9678524821979635</v>
+        <v>1.023609083951018</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795086839898465</v>
+        <v>1.022618632091806</v>
       </c>
       <c r="D21">
-        <v>1.00262542013831</v>
+        <v>1.027927841210687</v>
       </c>
       <c r="E21">
-        <v>0.9902582606581155</v>
+        <v>1.023435627837393</v>
       </c>
       <c r="F21">
-        <v>0.9437078715334022</v>
+        <v>1.018435613163892</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036044669878026</v>
+        <v>1.032917898399225</v>
       </c>
       <c r="J21">
-        <v>1.009888843937268</v>
+        <v>1.02930225761106</v>
       </c>
       <c r="K21">
-        <v>1.017557223259457</v>
+        <v>1.031538282038463</v>
       </c>
       <c r="L21">
-        <v>1.005426573895227</v>
+        <v>1.027063161843012</v>
       </c>
       <c r="M21">
-        <v>0.9598404057597202</v>
+        <v>1.022082369321428</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9758734910559523</v>
+        <v>1.021974673000866</v>
       </c>
       <c r="D22">
-        <v>1.00002367619533</v>
+        <v>1.02745376516884</v>
       </c>
       <c r="E22">
-        <v>0.9874104667546917</v>
+        <v>1.022892389920511</v>
       </c>
       <c r="F22">
-        <v>0.9377176243098435</v>
+        <v>1.017339028380291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034761508149682</v>
+        <v>1.032744693777313</v>
       </c>
       <c r="J22">
-        <v>1.007710398477083</v>
+        <v>1.028911120416904</v>
       </c>
       <c r="K22">
-        <v>1.015594664070265</v>
+        <v>1.031196218560854</v>
       </c>
       <c r="L22">
-        <v>1.003235519447206</v>
+        <v>1.02665288844356</v>
       </c>
       <c r="M22">
-        <v>0.9546328250159756</v>
+        <v>1.021121739534301</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9778100535944464</v>
+        <v>1.022316052245996</v>
       </c>
       <c r="D23">
-        <v>1.00140927059224</v>
+        <v>1.027705091833812</v>
       </c>
       <c r="E23">
-        <v>0.9889267745451943</v>
+        <v>1.023180333497116</v>
       </c>
       <c r="F23">
-        <v>0.940912418005119</v>
+        <v>1.017920373601281</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035446209723996</v>
+        <v>1.032836656269762</v>
       </c>
       <c r="J23">
-        <v>1.008871424012047</v>
+        <v>1.029118535654377</v>
       </c>
       <c r="K23">
-        <v>1.016640695642406</v>
+        <v>1.031377632703189</v>
       </c>
       <c r="L23">
-        <v>1.004402851441636</v>
+        <v>1.026870412334082</v>
       </c>
       <c r="M23">
-        <v>0.9574103880903223</v>
+        <v>1.021631057821887</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9852302053184484</v>
+        <v>1.023659934846406</v>
       </c>
       <c r="D24">
-        <v>1.006727104711313</v>
+        <v>1.028694316957852</v>
       </c>
       <c r="E24">
-        <v>0.9947534257026887</v>
+        <v>1.024314761113106</v>
       </c>
       <c r="F24">
-        <v>0.9530796604495346</v>
+        <v>1.020208558212677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038045004923662</v>
+        <v>1.033195522531485</v>
       </c>
       <c r="J24">
-        <v>1.013308904859574</v>
+        <v>1.029933646629454</v>
       </c>
       <c r="K24">
-        <v>1.020637105845201</v>
+        <v>1.032090072336885</v>
       </c>
       <c r="L24">
-        <v>1.008873307809026</v>
+        <v>1.027726113118009</v>
       </c>
       <c r="M24">
-        <v>0.9679840940142294</v>
+        <v>1.023634667626548</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9934553890534347</v>
+        <v>1.025219240338076</v>
       </c>
       <c r="D25">
-        <v>1.012637263624669</v>
+        <v>1.02984177148902</v>
       </c>
       <c r="E25">
-        <v>1.001244215752948</v>
+        <v>1.025632882754793</v>
       </c>
       <c r="F25">
-        <v>0.9664448207936643</v>
+        <v>1.022863010937346</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040874247763243</v>
+        <v>1.033605373362013</v>
       </c>
       <c r="J25">
-        <v>1.018205030827136</v>
+        <v>1.030876507187855</v>
       </c>
       <c r="K25">
-        <v>1.025042519427553</v>
+        <v>1.032913144282034</v>
       </c>
       <c r="L25">
-        <v>1.013823247531177</v>
+        <v>1.028717710997193</v>
       </c>
       <c r="M25">
-        <v>0.9795873748161913</v>
+        <v>1.025956760369553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026462783288294</v>
+        <v>0.9997374061075451</v>
       </c>
       <c r="D2">
-        <v>1.030756564931889</v>
+        <v>1.017161177658689</v>
       </c>
       <c r="E2">
-        <v>1.026685550906304</v>
+        <v>1.006225238771741</v>
       </c>
       <c r="F2">
-        <v>1.024979714447531</v>
+        <v>0.9765787512845652</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033926948399888</v>
+        <v>1.042992725647497</v>
       </c>
       <c r="J2">
-        <v>1.031626087283112</v>
+        <v>1.021925974151495</v>
       </c>
       <c r="K2">
-        <v>1.033566654395866</v>
+        <v>1.028386497174979</v>
       </c>
       <c r="L2">
-        <v>1.029507475098478</v>
+        <v>1.017598522107751</v>
       </c>
       <c r="M2">
-        <v>1.02780662802701</v>
+        <v>0.9883743211878848</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027365618354493</v>
+        <v>1.004151515626446</v>
       </c>
       <c r="D3">
-        <v>1.031420536549801</v>
+        <v>1.02034467257204</v>
       </c>
       <c r="E3">
-        <v>1.027450649110859</v>
+        <v>1.009738003615326</v>
       </c>
       <c r="F3">
-        <v>1.026516456930325</v>
+        <v>0.9836668015950549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034157352540494</v>
+        <v>1.044456183463142</v>
       </c>
       <c r="J3">
-        <v>1.032168932923749</v>
+        <v>1.024529642402556</v>
       </c>
       <c r="K3">
-        <v>1.03403943531443</v>
+        <v>1.03072369260015</v>
       </c>
       <c r="L3">
-        <v>1.030080254816403</v>
+        <v>1.020247782858144</v>
       </c>
       <c r="M3">
-        <v>1.029148595215377</v>
+        <v>0.9945130243849993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027949773309699</v>
+        <v>1.006943876407565</v>
       </c>
       <c r="D4">
-        <v>1.031850051738741</v>
+        <v>1.022360408618694</v>
       </c>
       <c r="E4">
-        <v>1.027946071304067</v>
+        <v>1.011965836365332</v>
       </c>
       <c r="F4">
-        <v>1.027510787652378</v>
+        <v>0.9881384827196321</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034305009878391</v>
+        <v>1.04537014086646</v>
       </c>
       <c r="J4">
-        <v>1.032519535329838</v>
+        <v>1.026171609684596</v>
       </c>
       <c r="K4">
-        <v>1.034344556731738</v>
+        <v>1.032196250490328</v>
       </c>
       <c r="L4">
-        <v>1.03045057565342</v>
+        <v>1.021921957957715</v>
       </c>
       <c r="M4">
-        <v>1.030016411982709</v>
+        <v>0.9983822058043172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028195342375544</v>
+        <v>1.008103082416766</v>
       </c>
       <c r="D5">
-        <v>1.032030590756867</v>
+        <v>1.023197610306831</v>
       </c>
       <c r="E5">
-        <v>1.028154430534757</v>
+        <v>1.012892008423671</v>
       </c>
       <c r="F5">
-        <v>1.027928798395322</v>
+        <v>0.9899922961099989</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034366742579107</v>
+        <v>1.045746687400341</v>
       </c>
       <c r="J5">
-        <v>1.032666771611646</v>
+        <v>1.026852008740549</v>
       </c>
       <c r="K5">
-        <v>1.034472638060112</v>
+        <v>1.03280610624713</v>
       </c>
       <c r="L5">
-        <v>1.030606184957996</v>
+        <v>1.022616526716479</v>
       </c>
       <c r="M5">
-        <v>1.030381120300874</v>
+        <v>0.9999853501483671</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028236573929716</v>
+        <v>1.00829687245444</v>
       </c>
       <c r="D6">
-        <v>1.032060902321114</v>
+        <v>1.023337591491053</v>
       </c>
       <c r="E6">
-        <v>1.028189419858084</v>
+        <v>1.013046917680465</v>
       </c>
       <c r="F6">
-        <v>1.027998984030559</v>
+        <v>0.9903020687661567</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034377087684035</v>
+        <v>1.045809466893478</v>
       </c>
       <c r="J6">
-        <v>1.03269148402184</v>
+        <v>1.02696568112157</v>
       </c>
       <c r="K6">
-        <v>1.034494132226904</v>
+        <v>1.032907972488713</v>
       </c>
       <c r="L6">
-        <v>1.030632308120709</v>
+        <v>1.022732614662628</v>
       </c>
       <c r="M6">
-        <v>1.030442349403382</v>
+        <v>1.000253182549992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027953054653821</v>
+        <v>1.006959422794458</v>
       </c>
       <c r="D7">
-        <v>1.031852464225458</v>
+        <v>1.022371635010839</v>
       </c>
       <c r="E7">
-        <v>1.027948855082087</v>
+        <v>1.011978252305021</v>
       </c>
       <c r="F7">
-        <v>1.027516373149636</v>
+        <v>0.9881633541780698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034305836099595</v>
+        <v>1.04537520220164</v>
       </c>
       <c r="J7">
-        <v>1.032521503325231</v>
+        <v>1.026180739589878</v>
       </c>
       <c r="K7">
-        <v>1.034346268914446</v>
+        <v>1.032204435193005</v>
       </c>
       <c r="L7">
-        <v>1.030452655202092</v>
+        <v>1.021931274748822</v>
       </c>
       <c r="M7">
-        <v>1.030021285706911</v>
+        <v>0.9984037177631397</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02676790874472</v>
+        <v>1.001242762849112</v>
       </c>
       <c r="D8">
-        <v>1.030980981428997</v>
+        <v>1.018246434444629</v>
       </c>
       <c r="E8">
-        <v>1.026944046053389</v>
+        <v>1.007421995219048</v>
       </c>
       <c r="F8">
-        <v>1.025499075819119</v>
+        <v>0.9789988241120101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034005110431305</v>
+        <v>1.043494276492308</v>
       </c>
       <c r="J8">
-        <v>1.031809680043489</v>
+        <v>1.022814976516861</v>
       </c>
       <c r="K8">
-        <v>1.033726598258475</v>
+        <v>1.029184790760538</v>
       </c>
       <c r="L8">
-        <v>1.029701111834852</v>
+        <v>1.018502360729146</v>
       </c>
       <c r="M8">
-        <v>1.028260263395587</v>
+        <v>0.9904709902285943</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024679233058536</v>
+        <v>0.9906518763748371</v>
       </c>
       <c r="D9">
-        <v>1.029444438179077</v>
+        <v>1.010621081518541</v>
       </c>
       <c r="E9">
-        <v>1.025176171849323</v>
+        <v>0.9990279933154945</v>
       </c>
       <c r="F9">
-        <v>1.021943787557476</v>
+        <v>0.9619025425365382</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033464253587397</v>
+        <v>1.03991653791375</v>
       </c>
       <c r="J9">
-        <v>1.030550346084387</v>
+        <v>1.016539115268016</v>
       </c>
       <c r="K9">
-        <v>1.032628550395407</v>
+        <v>1.023544157745859</v>
       </c>
       <c r="L9">
-        <v>1.028374467392577</v>
+        <v>1.012136860359833</v>
       </c>
       <c r="M9">
-        <v>1.025152910786019</v>
+        <v>0.9756455243480862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02328658907272</v>
+        <v>0.9832005740191507</v>
       </c>
       <c r="D10">
-        <v>1.028419524776063</v>
+        <v>1.005271166380434</v>
       </c>
       <c r="E10">
-        <v>1.023999458685187</v>
+        <v>0.9931569934407425</v>
       </c>
       <c r="F10">
-        <v>1.019572925543408</v>
+        <v>0.9497626741695524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033096337683155</v>
+        <v>1.037338240525988</v>
       </c>
       <c r="J10">
-        <v>1.029707427672208</v>
+        <v>1.012096944912355</v>
       </c>
       <c r="K10">
-        <v>1.031892427943601</v>
+        <v>1.019545896062215</v>
       </c>
       <c r="L10">
-        <v>1.027488488944157</v>
+        <v>1.007650909520651</v>
       </c>
       <c r="M10">
-        <v>1.023078261464711</v>
+        <v>0.9651023528024003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022683513287154</v>
+        <v>0.979870762724305</v>
       </c>
       <c r="D11">
-        <v>1.02797560301884</v>
+        <v>1.002884748458766</v>
       </c>
       <c r="E11">
-        <v>1.023490379221881</v>
+        <v>0.9905422587066821</v>
       </c>
       <c r="F11">
-        <v>1.01854609044973</v>
+        <v>0.9443029449050009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032935285785256</v>
+        <v>1.036171974766125</v>
       </c>
       <c r="J11">
-        <v>1.029341637763392</v>
+        <v>1.010105598135591</v>
       </c>
       <c r="K11">
-        <v>1.031572711507771</v>
+        <v>1.01775246693033</v>
       </c>
       <c r="L11">
-        <v>1.027104486094066</v>
+        <v>1.005644765716571</v>
       </c>
       <c r="M11">
-        <v>1.022179127920689</v>
+        <v>0.9603576410235448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022459496226218</v>
+        <v>0.978617393022764</v>
       </c>
       <c r="D12">
-        <v>1.027810692120232</v>
+        <v>1.00198720065988</v>
       </c>
       <c r="E12">
-        <v>1.02330135179908</v>
+        <v>0.989559441749657</v>
       </c>
       <c r="F12">
-        <v>1.018164636868393</v>
+        <v>0.9422418457000327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032875202322423</v>
+        <v>1.035730901963436</v>
       </c>
       <c r="J12">
-        <v>1.029205646771389</v>
+        <v>1.009355105241431</v>
       </c>
       <c r="K12">
-        <v>1.031453808932986</v>
+        <v>1.01707642781424</v>
       </c>
       <c r="L12">
-        <v>1.026961795162861</v>
+        <v>1.004889437680964</v>
       </c>
       <c r="M12">
-        <v>1.021845025030466</v>
+        <v>0.9585660705379515</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022507549003476</v>
+        <v>0.978887010176149</v>
       </c>
       <c r="D13">
-        <v>1.027846066900202</v>
+        <v>1.002180241909936</v>
       </c>
       <c r="E13">
-        <v>1.023341895767205</v>
+        <v>0.989770795439268</v>
       </c>
       <c r="F13">
-        <v>1.018246461919438</v>
+        <v>0.9426855018658546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032888102266611</v>
+        <v>1.03582587621312</v>
       </c>
       <c r="J13">
-        <v>1.02923482274685</v>
+        <v>1.009516588712594</v>
       </c>
       <c r="K13">
-        <v>1.031479320527596</v>
+        <v>1.017221896831899</v>
       </c>
       <c r="L13">
-        <v>1.026992405346208</v>
+        <v>1.005051927761709</v>
       </c>
       <c r="M13">
-        <v>1.021916696955489</v>
+        <v>0.9589517268676061</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022664996127925</v>
+        <v>0.9797675021126763</v>
       </c>
       <c r="D14">
-        <v>1.027961971808578</v>
+        <v>1.002810787683455</v>
       </c>
       <c r="E14">
-        <v>1.023474752779314</v>
+        <v>0.9904612593426617</v>
       </c>
       <c r="F14">
-        <v>1.018514560254118</v>
+        <v>0.9441332653714199</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032930324603925</v>
+        <v>1.036135678422316</v>
       </c>
       <c r="J14">
-        <v>1.029330399160586</v>
+        <v>1.010043786657977</v>
       </c>
       <c r="K14">
-        <v>1.031562885954263</v>
+        <v>1.017696790181217</v>
       </c>
       <c r="L14">
-        <v>1.02709269234181</v>
+        <v>1.0055825408536</v>
       </c>
       <c r="M14">
-        <v>1.022151513443321</v>
+        <v>0.9602101580445457</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022762003453185</v>
+        <v>0.9803077803991456</v>
       </c>
       <c r="D15">
-        <v>1.028033382200956</v>
+        <v>1.003197793670887</v>
       </c>
       <c r="E15">
-        <v>1.023556619309088</v>
+        <v>0.9908851197803528</v>
       </c>
       <c r="F15">
-        <v>1.018679738838269</v>
+        <v>0.9450208097490499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032956304515033</v>
+        <v>1.036325502963271</v>
       </c>
       <c r="J15">
-        <v>1.029389270996883</v>
+        <v>1.010367157572372</v>
       </c>
       <c r="K15">
-        <v>1.031614354075604</v>
+        <v>1.017988061432465</v>
       </c>
       <c r="L15">
-        <v>1.027154475163248</v>
+        <v>1.005908104712051</v>
       </c>
       <c r="M15">
-        <v>1.022296174964197</v>
+        <v>0.9609815829351596</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02332661212878</v>
+        <v>0.9834193016604825</v>
       </c>
       <c r="D16">
-        <v>1.02844898376313</v>
+        <v>1.005428020619707</v>
       </c>
       <c r="E16">
-        <v>1.024033254031931</v>
+        <v>0.9933289388583574</v>
       </c>
       <c r="F16">
-        <v>1.019641067733963</v>
+        <v>0.9501205241020378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033106989474716</v>
+        <v>1.037414559831353</v>
       </c>
       <c r="J16">
-        <v>1.029731687071125</v>
+        <v>1.012227622490205</v>
       </c>
       <c r="K16">
-        <v>1.031913626035769</v>
+        <v>1.019663565420653</v>
       </c>
       <c r="L16">
-        <v>1.027513966202313</v>
+        <v>1.007782659765414</v>
       </c>
       <c r="M16">
-        <v>1.023137916788091</v>
+        <v>0.9654132794800897</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023680762319576</v>
+        <v>0.9853427274778457</v>
       </c>
       <c r="D17">
-        <v>1.028709645909577</v>
+        <v>1.006807850604202</v>
       </c>
       <c r="E17">
-        <v>1.024332353912603</v>
+        <v>0.9948419910187211</v>
       </c>
       <c r="F17">
-        <v>1.020244016614213</v>
+        <v>0.9532633203004308</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033201043875502</v>
+        <v>1.038084093245273</v>
       </c>
       <c r="J17">
-        <v>1.029946261238073</v>
+        <v>1.013376053672018</v>
       </c>
       <c r="K17">
-        <v>1.032101091699155</v>
+        <v>1.020697557257868</v>
       </c>
       <c r="L17">
-        <v>1.027739366937071</v>
+        <v>1.008941067309695</v>
       </c>
       <c r="M17">
-        <v>1.023665702400573</v>
+        <v>0.9681436340153141</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023887327147217</v>
+        <v>0.9864547299327993</v>
       </c>
       <c r="D18">
-        <v>1.028861673391401</v>
+        <v>1.007605986076972</v>
       </c>
       <c r="E18">
-        <v>1.024506856726434</v>
+        <v>0.9957175780368076</v>
       </c>
       <c r="F18">
-        <v>1.020595684097116</v>
+        <v>0.9550770555619561</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03325573614442</v>
+        <v>1.038469838890905</v>
       </c>
       <c r="J18">
-        <v>1.030071341469003</v>
+        <v>1.014039411947224</v>
       </c>
       <c r="K18">
-        <v>1.032210343593914</v>
+        <v>1.021294709250781</v>
       </c>
       <c r="L18">
-        <v>1.027870803822565</v>
+        <v>1.009610643373293</v>
       </c>
       <c r="M18">
-        <v>1.023973474283058</v>
+        <v>0.9697190511396153</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023957759572034</v>
+        <v>0.9868322439353312</v>
       </c>
       <c r="D19">
-        <v>1.028913508723978</v>
+        <v>1.007877012068056</v>
       </c>
       <c r="E19">
-        <v>1.024566364940434</v>
+        <v>0.9960149715095326</v>
       </c>
       <c r="F19">
-        <v>1.020715589998599</v>
+        <v>0.955692275430483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033274356284343</v>
+        <v>1.038600568095762</v>
       </c>
       <c r="J19">
-        <v>1.03011397749354</v>
+        <v>1.0142645150687</v>
       </c>
       <c r="K19">
-        <v>1.032247579776228</v>
+        <v>1.021497327708609</v>
       </c>
       <c r="L19">
-        <v>1.027915614368989</v>
+        <v>1.009837933205661</v>
       </c>
       <c r="M19">
-        <v>1.024078403710352</v>
+        <v>0.9702533816291098</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023642765872058</v>
+        <v>0.9851373929786529</v>
       </c>
       <c r="D20">
-        <v>1.028681680600188</v>
+        <v>1.006660504869433</v>
       </c>
       <c r="E20">
-        <v>1.024300258883682</v>
+        <v>0.9946803785592072</v>
       </c>
       <c r="F20">
-        <v>1.020179328263743</v>
+        <v>0.9529281530002739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033190970112226</v>
+        <v>1.03801275589758</v>
       </c>
       <c r="J20">
-        <v>1.029923247451221</v>
+        <v>1.013253514745201</v>
       </c>
       <c r="K20">
-        <v>1.032080988093563</v>
+        <v>1.020587239731487</v>
       </c>
       <c r="L20">
-        <v>1.02771518724719</v>
+        <v>1.008817416522132</v>
       </c>
       <c r="M20">
-        <v>1.023609083951018</v>
+        <v>0.9678524821979645</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022618632091806</v>
+        <v>0.9795086839898458</v>
       </c>
       <c r="D21">
-        <v>1.027927841210687</v>
+        <v>1.00262542013831</v>
       </c>
       <c r="E21">
-        <v>1.023435627837393</v>
+        <v>0.9902582606581148</v>
       </c>
       <c r="F21">
-        <v>1.018435613163892</v>
+        <v>0.9437078715334014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032917898399225</v>
+        <v>1.036044669878025</v>
       </c>
       <c r="J21">
-        <v>1.02930225761106</v>
+        <v>1.009888843937267</v>
       </c>
       <c r="K21">
-        <v>1.031538282038463</v>
+        <v>1.017557223259457</v>
       </c>
       <c r="L21">
-        <v>1.027063161843012</v>
+        <v>1.005426573895226</v>
       </c>
       <c r="M21">
-        <v>1.022082369321428</v>
+        <v>0.9598404057597193</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021974673000866</v>
+        <v>0.9758734910559526</v>
       </c>
       <c r="D22">
-        <v>1.02745376516884</v>
+        <v>1.00002367619533</v>
       </c>
       <c r="E22">
-        <v>1.022892389920511</v>
+        <v>0.9874104667546919</v>
       </c>
       <c r="F22">
-        <v>1.017339028380291</v>
+        <v>0.937717624309844</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032744693777313</v>
+        <v>1.034761508149682</v>
       </c>
       <c r="J22">
-        <v>1.028911120416904</v>
+        <v>1.007710398477083</v>
       </c>
       <c r="K22">
-        <v>1.031196218560854</v>
+        <v>1.015594664070265</v>
       </c>
       <c r="L22">
-        <v>1.02665288844356</v>
+        <v>1.003235519447206</v>
       </c>
       <c r="M22">
-        <v>1.021121739534301</v>
+        <v>0.9546328250159759</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022316052245996</v>
+        <v>0.9778100535944463</v>
       </c>
       <c r="D23">
-        <v>1.027705091833812</v>
+        <v>1.00140927059224</v>
       </c>
       <c r="E23">
-        <v>1.023180333497116</v>
+        <v>0.9889267745451942</v>
       </c>
       <c r="F23">
-        <v>1.017920373601281</v>
+        <v>0.9409124180051185</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032836656269762</v>
+        <v>1.035446209723996</v>
       </c>
       <c r="J23">
-        <v>1.029118535654377</v>
+        <v>1.008871424012047</v>
       </c>
       <c r="K23">
-        <v>1.031377632703189</v>
+        <v>1.016640695642406</v>
       </c>
       <c r="L23">
-        <v>1.026870412334082</v>
+        <v>1.004402851441636</v>
       </c>
       <c r="M23">
-        <v>1.021631057821887</v>
+        <v>0.9574103880903218</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023659934846406</v>
+        <v>0.985230205318448</v>
       </c>
       <c r="D24">
-        <v>1.028694316957852</v>
+        <v>1.006727104711312</v>
       </c>
       <c r="E24">
-        <v>1.024314761113106</v>
+        <v>0.9947534257026885</v>
       </c>
       <c r="F24">
-        <v>1.020208558212677</v>
+        <v>0.9530796604495342</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033195522531485</v>
+        <v>1.038045004923661</v>
       </c>
       <c r="J24">
-        <v>1.029933646629454</v>
+        <v>1.013308904859574</v>
       </c>
       <c r="K24">
-        <v>1.032090072336885</v>
+        <v>1.020637105845201</v>
       </c>
       <c r="L24">
-        <v>1.027726113118009</v>
+        <v>1.008873307809025</v>
       </c>
       <c r="M24">
-        <v>1.023634667626548</v>
+        <v>0.9679840940142291</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025219240338076</v>
+        <v>0.9934553890534346</v>
       </c>
       <c r="D25">
-        <v>1.02984177148902</v>
+        <v>1.012637263624669</v>
       </c>
       <c r="E25">
-        <v>1.025632882754793</v>
+        <v>1.001244215752948</v>
       </c>
       <c r="F25">
-        <v>1.022863010937346</v>
+        <v>0.9664448207936649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033605373362013</v>
+        <v>1.040874247763243</v>
       </c>
       <c r="J25">
-        <v>1.030876507187855</v>
+        <v>1.018205030827136</v>
       </c>
       <c r="K25">
-        <v>1.032913144282034</v>
+        <v>1.025042519427553</v>
       </c>
       <c r="L25">
-        <v>1.028717710997193</v>
+        <v>1.013823247531177</v>
       </c>
       <c r="M25">
-        <v>1.025956760369553</v>
+        <v>0.9795873748161918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9997374061075451</v>
+        <v>1.018292474164599</v>
       </c>
       <c r="D2">
-        <v>1.017161177658689</v>
+        <v>1.038270867373868</v>
       </c>
       <c r="E2">
-        <v>1.006225238771741</v>
+        <v>1.022220701807345</v>
       </c>
       <c r="F2">
-        <v>0.9765787512845652</v>
+        <v>1.043114869101952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042992725647497</v>
+        <v>1.056763187477353</v>
       </c>
       <c r="J2">
-        <v>1.021925974151495</v>
+        <v>1.03993949456646</v>
       </c>
       <c r="K2">
-        <v>1.028386497174979</v>
+        <v>1.049221583477451</v>
       </c>
       <c r="L2">
-        <v>1.017598522107751</v>
+        <v>1.033378909244364</v>
       </c>
       <c r="M2">
-        <v>0.9883743211878848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.054004527901715</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.05131327220012</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045874175002944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004151515626446</v>
+        <v>1.021774729227108</v>
       </c>
       <c r="D3">
-        <v>1.02034467257204</v>
+        <v>1.04061104633927</v>
       </c>
       <c r="E3">
-        <v>1.009738003615326</v>
+        <v>1.024948110949689</v>
       </c>
       <c r="F3">
-        <v>0.9836668015950549</v>
+        <v>1.045558050733169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044456183463142</v>
+        <v>1.057722375359221</v>
       </c>
       <c r="J3">
-        <v>1.024529642402556</v>
+        <v>1.041688894770405</v>
       </c>
       <c r="K3">
-        <v>1.03072369260015</v>
+        <v>1.050749388823268</v>
       </c>
       <c r="L3">
-        <v>1.020247782858144</v>
+        <v>1.035271425185394</v>
       </c>
       <c r="M3">
-        <v>0.9945130243849993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.055639393285988</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052607138387779</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046951805834757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006943876407565</v>
+        <v>1.023991387627896</v>
       </c>
       <c r="D4">
-        <v>1.022360408618694</v>
+        <v>1.042104604581411</v>
       </c>
       <c r="E4">
-        <v>1.011965836365332</v>
+        <v>1.026689767996478</v>
       </c>
       <c r="F4">
-        <v>0.9881384827196321</v>
+        <v>1.047119296054013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04537014086646</v>
+        <v>1.058324597652378</v>
       </c>
       <c r="J4">
-        <v>1.026171609684596</v>
+        <v>1.042800683189284</v>
       </c>
       <c r="K4">
-        <v>1.032196250490328</v>
+        <v>1.051720094349798</v>
       </c>
       <c r="L4">
-        <v>1.021921957957715</v>
+        <v>1.036476398801524</v>
       </c>
       <c r="M4">
-        <v>0.9983822058043172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.056680442895642</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053431045363573</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04763905065173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008103082416766</v>
+        <v>1.024917887269396</v>
       </c>
       <c r="D5">
-        <v>1.023197610306831</v>
+        <v>1.042731651330172</v>
       </c>
       <c r="E5">
-        <v>1.012892008423671</v>
+        <v>1.02741945173099</v>
       </c>
       <c r="F5">
-        <v>0.9899922961099989</v>
+        <v>1.047773915475185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045746687400341</v>
+        <v>1.05857574608873</v>
       </c>
       <c r="J5">
-        <v>1.026852008740549</v>
+        <v>1.043266414965543</v>
       </c>
       <c r="K5">
-        <v>1.03280610624713</v>
+        <v>1.052127936668434</v>
       </c>
       <c r="L5">
-        <v>1.022616526716479</v>
+        <v>1.03698124340812</v>
       </c>
       <c r="M5">
-        <v>0.9999853501483671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.057116994504681</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053776540558088</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04793451824623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00829687245444</v>
+        <v>1.025076779030278</v>
       </c>
       <c r="D6">
-        <v>1.023337591491053</v>
+        <v>1.042841517635608</v>
       </c>
       <c r="E6">
-        <v>1.013046917680465</v>
+        <v>1.027545182203755</v>
       </c>
       <c r="F6">
-        <v>0.9903020687661567</v>
+        <v>1.047887051177975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045809466893478</v>
+        <v>1.058620490694656</v>
       </c>
       <c r="J6">
-        <v>1.02696568112157</v>
+        <v>1.043348072243965</v>
       </c>
       <c r="K6">
-        <v>1.032907972488713</v>
+        <v>1.052200983495294</v>
       </c>
       <c r="L6">
-        <v>1.022732614662628</v>
+        <v>1.037069230697424</v>
       </c>
       <c r="M6">
-        <v>1.000253182549992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0571935168813</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053837101797005</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047994819313909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006959422794458</v>
+        <v>1.024014078723068</v>
       </c>
       <c r="D7">
-        <v>1.022371635010839</v>
+        <v>1.042126045711718</v>
       </c>
       <c r="E7">
-        <v>1.011978252305021</v>
+        <v>1.026709031514532</v>
       </c>
       <c r="F7">
-        <v>0.9881633541780698</v>
+        <v>1.047137424076565</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04537520220164</v>
+        <v>1.0583355603429</v>
       </c>
       <c r="J7">
-        <v>1.026180739589878</v>
+        <v>1.042816956186544</v>
       </c>
       <c r="K7">
-        <v>1.032204435193005</v>
+        <v>1.051738461811476</v>
       </c>
       <c r="L7">
-        <v>1.021931274748822</v>
+        <v>1.036492547544178</v>
       </c>
       <c r="M7">
-        <v>0.9984037177631397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.056695553713592</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053443004353142</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047671938106807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001242762849112</v>
+        <v>1.019489884981108</v>
       </c>
       <c r="D8">
-        <v>1.018246434444629</v>
+        <v>1.039082241495748</v>
       </c>
       <c r="E8">
-        <v>1.007421995219048</v>
+        <v>1.023159216850512</v>
       </c>
       <c r="F8">
-        <v>0.9789988241120101</v>
+        <v>1.043956308530167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043494276492308</v>
+        <v>1.057100608007181</v>
       </c>
       <c r="J8">
-        <v>1.022814976516861</v>
+        <v>1.040547446729051</v>
       </c>
       <c r="K8">
-        <v>1.029184790760538</v>
+        <v>1.049757615768514</v>
       </c>
       <c r="L8">
-        <v>1.018502360729146</v>
+        <v>1.03403435999822</v>
       </c>
       <c r="M8">
-        <v>0.9904709902285943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.054572047379009</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051762419073283</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046275864398394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9906518763748371</v>
+        <v>1.011209791660095</v>
       </c>
       <c r="D9">
-        <v>1.010621081518541</v>
+        <v>1.033534195926877</v>
       </c>
       <c r="E9">
-        <v>0.9990279933154945</v>
+        <v>1.016704851640501</v>
       </c>
       <c r="F9">
-        <v>0.9619025425365382</v>
+        <v>1.038180141950577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03991653791375</v>
+        <v>1.054768231507706</v>
       </c>
       <c r="J9">
-        <v>1.016539115268016</v>
+        <v>1.03637281991809</v>
       </c>
       <c r="K9">
-        <v>1.023544157745859</v>
+        <v>1.046105663931829</v>
       </c>
       <c r="L9">
-        <v>1.012136860359833</v>
+        <v>1.029532595949423</v>
       </c>
       <c r="M9">
-        <v>0.9756455243480862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.05068272090484</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048684318733385</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043690597190172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9832005740191507</v>
+        <v>1.00552957089462</v>
       </c>
       <c r="D10">
-        <v>1.005271166380434</v>
+        <v>1.029774616194681</v>
       </c>
       <c r="E10">
-        <v>0.9931569934407425</v>
+        <v>1.012316837028753</v>
       </c>
       <c r="F10">
-        <v>0.9497626741695524</v>
+        <v>1.034324798953958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037338240525988</v>
+        <v>1.053149620051058</v>
       </c>
       <c r="J10">
-        <v>1.012096944912355</v>
+        <v>1.033525504893641</v>
       </c>
       <c r="K10">
-        <v>1.019545896062215</v>
+        <v>1.043626314850538</v>
       </c>
       <c r="L10">
-        <v>1.007650909520651</v>
+        <v>1.026467212068054</v>
       </c>
       <c r="M10">
-        <v>0.9651023528024003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.048100782900113</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046691838751593</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041954233874827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.979870762724305</v>
+        <v>1.003412929702465</v>
       </c>
       <c r="D11">
-        <v>1.002884748458766</v>
+        <v>1.02854866131231</v>
       </c>
       <c r="E11">
-        <v>0.9905422587066821</v>
+        <v>1.010749617151898</v>
       </c>
       <c r="F11">
-        <v>0.9443029449050009</v>
+        <v>1.033464468005286</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036171974766125</v>
+        <v>1.052709829303884</v>
       </c>
       <c r="J11">
-        <v>1.010105598135591</v>
+        <v>1.032644412848677</v>
       </c>
       <c r="K11">
-        <v>1.01775246693033</v>
+        <v>1.042951552753539</v>
       </c>
       <c r="L11">
-        <v>1.005644765716571</v>
+        <v>1.025471619335323</v>
       </c>
       <c r="M11">
-        <v>0.9603576410235448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.047781732537169</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046871371911933</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041509713582236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.978617393022764</v>
+        <v>1.002747140720407</v>
       </c>
       <c r="D12">
-        <v>1.00198720065988</v>
+        <v>1.028226125955752</v>
       </c>
       <c r="E12">
-        <v>0.989559441749657</v>
+        <v>1.010282405482629</v>
       </c>
       <c r="F12">
-        <v>0.9422418457000327</v>
+        <v>1.033430151635671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035730901963436</v>
+        <v>1.05263468161038</v>
       </c>
       <c r="J12">
-        <v>1.009355105241431</v>
+        <v>1.03243568995801</v>
       </c>
       <c r="K12">
-        <v>1.01707642781424</v>
+        <v>1.042831826624332</v>
       </c>
       <c r="L12">
-        <v>1.004889437680964</v>
+        <v>1.025215227049647</v>
       </c>
       <c r="M12">
-        <v>0.9585660705379515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.047943735251324</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047323035815136</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041425064712124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.978887010176149</v>
+        <v>1.003168890507463</v>
       </c>
       <c r="D13">
-        <v>1.002180241909936</v>
+        <v>1.028596281758755</v>
       </c>
       <c r="E13">
-        <v>0.989770795439268</v>
+        <v>1.010642425208416</v>
       </c>
       <c r="F13">
-        <v>0.9426855018658546</v>
+        <v>1.034053671110888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03582587621312</v>
+        <v>1.052851243288385</v>
       </c>
       <c r="J13">
-        <v>1.009516588712594</v>
+        <v>1.03274760721617</v>
       </c>
       <c r="K13">
-        <v>1.017221896831899</v>
+        <v>1.043153124019297</v>
       </c>
       <c r="L13">
-        <v>1.005051927761709</v>
+        <v>1.025525175410172</v>
       </c>
       <c r="M13">
-        <v>0.9589517268676061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.048514353400252</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048048717066558</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041649757957441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9797675021126763</v>
+        <v>1.003957114586443</v>
       </c>
       <c r="D14">
-        <v>1.002810787683455</v>
+        <v>1.029169802052379</v>
       </c>
       <c r="E14">
-        <v>0.9904612593426617</v>
+        <v>1.011269355781732</v>
       </c>
       <c r="F14">
-        <v>0.9441332653714199</v>
+        <v>1.034787784936713</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036135678422316</v>
+        <v>1.053134793966992</v>
       </c>
       <c r="J14">
-        <v>1.010043786657977</v>
+        <v>1.03320161475327</v>
       </c>
       <c r="K14">
-        <v>1.017696790181217</v>
+        <v>1.04357809170708</v>
       </c>
       <c r="L14">
-        <v>1.0055825408536</v>
+        <v>1.025998526844337</v>
       </c>
       <c r="M14">
-        <v>0.9602101580445457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.049098327968879</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048682470986917</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041951631119872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9803077803991456</v>
+        <v>1.004391951658931</v>
       </c>
       <c r="D15">
-        <v>1.003197793670887</v>
+        <v>1.029469517887831</v>
       </c>
       <c r="E15">
-        <v>0.9908851197803528</v>
+        <v>1.011608278602493</v>
       </c>
       <c r="F15">
-        <v>0.9450208097490499</v>
+        <v>1.035125592165309</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036325502963271</v>
+        <v>1.053273426297406</v>
       </c>
       <c r="J15">
-        <v>1.010367157572372</v>
+        <v>1.033433164415811</v>
       </c>
       <c r="K15">
-        <v>1.017988061432465</v>
+        <v>1.043787324414643</v>
       </c>
       <c r="L15">
-        <v>1.005908104712051</v>
+        <v>1.026243820197074</v>
       </c>
       <c r="M15">
-        <v>0.9609815829351596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.0493457366763</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048915324266103</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042105381532029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834193016604825</v>
+        <v>1.006718379482034</v>
       </c>
       <c r="D16">
-        <v>1.005428020619707</v>
+        <v>1.030998942961605</v>
       </c>
       <c r="E16">
-        <v>0.9933289388583574</v>
+        <v>1.013393691413167</v>
       </c>
       <c r="F16">
-        <v>0.9501205241020378</v>
+        <v>1.036672061888688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037414559831353</v>
+        <v>1.053937641015828</v>
       </c>
       <c r="J16">
-        <v>1.012227622490205</v>
+        <v>1.034592014007273</v>
       </c>
       <c r="K16">
-        <v>1.019663565420653</v>
+        <v>1.044795081411709</v>
       </c>
       <c r="L16">
-        <v>1.007782659765414</v>
+        <v>1.027489277256407</v>
       </c>
       <c r="M16">
-        <v>0.9654132794800897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.05037449262451</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049689987413549</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042821027968585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853427274778457</v>
+        <v>1.008092576077454</v>
       </c>
       <c r="D17">
-        <v>1.006807850604202</v>
+        <v>1.031873520249064</v>
       </c>
       <c r="E17">
-        <v>0.9948419910187211</v>
+        <v>1.014438392841619</v>
       </c>
       <c r="F17">
-        <v>0.9532633203004308</v>
+        <v>1.037470184753682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038084093245273</v>
+        <v>1.054296416977926</v>
       </c>
       <c r="J17">
-        <v>1.013376053672018</v>
+        <v>1.035243281736384</v>
       </c>
       <c r="K17">
-        <v>1.020697557257868</v>
+        <v>1.045344855065298</v>
       </c>
       <c r="L17">
-        <v>1.008941067309695</v>
+        <v>1.028197913752135</v>
       </c>
       <c r="M17">
-        <v>0.9681436340153141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.050851644417547</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049938991022585</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043212296319007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9864547299327993</v>
+        <v>1.008761089107662</v>
       </c>
       <c r="D18">
-        <v>1.007605986076972</v>
+        <v>1.032239952514118</v>
       </c>
       <c r="E18">
-        <v>0.9957175780368076</v>
+        <v>1.014925631374278</v>
       </c>
       <c r="F18">
-        <v>0.9550770555619561</v>
+        <v>1.037650068029203</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038469838890905</v>
+        <v>1.054410175674266</v>
       </c>
       <c r="J18">
-        <v>1.014039411947224</v>
+        <v>1.035497150596698</v>
       </c>
       <c r="K18">
-        <v>1.021294709250781</v>
+        <v>1.045524457514847</v>
       </c>
       <c r="L18">
-        <v>1.009610643373293</v>
+        <v>1.028491608217028</v>
       </c>
       <c r="M18">
-        <v>0.9697190511396153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.050849087395433</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049701126604245</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043327750325587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9868322439353312</v>
+        <v>1.008792426519892</v>
       </c>
       <c r="D19">
-        <v>1.007877012068056</v>
+        <v>1.032151802393889</v>
       </c>
       <c r="E19">
-        <v>0.9960149715095326</v>
+        <v>1.014909994920347</v>
       </c>
       <c r="F19">
-        <v>0.955692275430483</v>
+        <v>1.037267431591985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038600568095762</v>
+        <v>1.054306162762815</v>
       </c>
       <c r="J19">
-        <v>1.0142645150687</v>
+        <v>1.035394622109529</v>
       </c>
       <c r="K19">
-        <v>1.021497327708609</v>
+        <v>1.045376014072496</v>
       </c>
       <c r="L19">
-        <v>1.009837933205661</v>
+        <v>1.028413040921554</v>
       </c>
       <c r="M19">
-        <v>0.9702533816291098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.050411193761516</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049032245010584</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043229133877175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9851373929786529</v>
+        <v>1.007027360208224</v>
       </c>
       <c r="D20">
-        <v>1.006660504869433</v>
+        <v>1.030780114633771</v>
       </c>
       <c r="E20">
-        <v>0.9946803785592072</v>
+        <v>1.013475952323881</v>
       </c>
       <c r="F20">
-        <v>0.9529281530002739</v>
+        <v>1.035347843866507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03801275589758</v>
+        <v>1.053591822300218</v>
       </c>
       <c r="J20">
-        <v>1.013253514745201</v>
+        <v>1.034290051022811</v>
       </c>
       <c r="K20">
-        <v>1.020587239731487</v>
+        <v>1.044302496185759</v>
       </c>
       <c r="L20">
-        <v>1.008817416522132</v>
+        <v>1.027285911129568</v>
       </c>
       <c r="M20">
-        <v>0.9678524821979645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.048796371910531</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047231873046159</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042474014235531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9795086839898458</v>
+        <v>1.002691228201744</v>
       </c>
       <c r="D21">
-        <v>1.00262542013831</v>
+        <v>1.02788325570571</v>
       </c>
       <c r="E21">
-        <v>0.9902582606581148</v>
+        <v>1.010125939302717</v>
       </c>
       <c r="F21">
-        <v>0.9437078715334014</v>
+        <v>1.032305759343427</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036044669878025</v>
+        <v>1.052306543683676</v>
       </c>
       <c r="J21">
-        <v>1.009888843937267</v>
+        <v>1.032076859613156</v>
       </c>
       <c r="K21">
-        <v>1.017557223259457</v>
+        <v>1.042354950354008</v>
       </c>
       <c r="L21">
-        <v>1.005426573895226</v>
+        <v>1.024917978966663</v>
       </c>
       <c r="M21">
-        <v>0.9598404057597193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.046699891022415</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04553220447027</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041100248202915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9758734910559526</v>
+        <v>0.9999289664113329</v>
       </c>
       <c r="D22">
-        <v>1.00002367619533</v>
+        <v>1.026048202329243</v>
       </c>
       <c r="E22">
-        <v>0.9874104667546919</v>
+        <v>1.008001151490682</v>
       </c>
       <c r="F22">
-        <v>0.937717624309844</v>
+        <v>1.03040998798748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034761508149682</v>
+        <v>1.051485938674551</v>
       </c>
       <c r="J22">
-        <v>1.007710398477083</v>
+        <v>1.030672277392041</v>
       </c>
       <c r="K22">
-        <v>1.015594664070265</v>
+        <v>1.041120717695758</v>
       </c>
       <c r="L22">
-        <v>1.003235519447206</v>
+        <v>1.023415753096733</v>
       </c>
       <c r="M22">
-        <v>0.9546328250159759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.045402165994676</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044505148506499</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040214212362926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9778100535944463</v>
+        <v>1.001388478489714</v>
       </c>
       <c r="D23">
-        <v>1.00140927059224</v>
+        <v>1.027011944706071</v>
       </c>
       <c r="E23">
-        <v>0.9889267745451942</v>
+        <v>1.009121553769789</v>
       </c>
       <c r="F23">
-        <v>0.9409124180051185</v>
+        <v>1.031409001138333</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035446209723996</v>
+        <v>1.051916304456559</v>
       </c>
       <c r="J23">
-        <v>1.008871424012047</v>
+        <v>1.031410180394026</v>
       </c>
       <c r="K23">
-        <v>1.016640695642406</v>
+        <v>1.041765756528866</v>
       </c>
       <c r="L23">
-        <v>1.004402851441636</v>
+        <v>1.024205774143572</v>
       </c>
       <c r="M23">
-        <v>0.9574103880903218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.046083884282478</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045044679648345</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040660719482983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985230205318448</v>
+        <v>1.007045057178212</v>
       </c>
       <c r="D24">
-        <v>1.006727104711312</v>
+        <v>1.030767092375463</v>
       </c>
       <c r="E24">
-        <v>0.9947534257026885</v>
+        <v>1.013481565923254</v>
       </c>
       <c r="F24">
-        <v>0.9530796604495342</v>
+        <v>1.035300693919875</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038045004923661</v>
+        <v>1.053573808518557</v>
       </c>
       <c r="J24">
-        <v>1.013308904859574</v>
+        <v>1.034274584748842</v>
       </c>
       <c r="K24">
-        <v>1.020637105845201</v>
+        <v>1.044274619782946</v>
       </c>
       <c r="L24">
-        <v>1.008873307809025</v>
+        <v>1.027275995445305</v>
       </c>
       <c r="M24">
-        <v>0.9679840940142291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.048735007763905</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047142850014719</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042427140088115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9934553890534346</v>
+        <v>1.013402999095854</v>
       </c>
       <c r="D25">
-        <v>1.012637263624669</v>
+        <v>1.035009089489939</v>
       </c>
       <c r="E25">
-        <v>1.001244215752948</v>
+        <v>1.018411473162188</v>
       </c>
       <c r="F25">
-        <v>0.9664448207936649</v>
+        <v>1.039707363167616</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040874247763243</v>
+        <v>1.055400625941739</v>
       </c>
       <c r="J25">
-        <v>1.018205030827136</v>
+        <v>1.037487567369702</v>
       </c>
       <c r="K25">
-        <v>1.025042519427553</v>
+        <v>1.047087199157299</v>
       </c>
       <c r="L25">
-        <v>1.013823247531177</v>
+        <v>1.030730543163763</v>
       </c>
       <c r="M25">
-        <v>0.9795873748161918</v>
+        <v>1.051719029674751</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049504478014306</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044412907365892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018292474164599</v>
+        <v>1.016922526487676</v>
       </c>
       <c r="D2">
-        <v>1.038270867373868</v>
+        <v>1.036284094551447</v>
       </c>
       <c r="E2">
-        <v>1.022220701807345</v>
+        <v>1.021051735032454</v>
       </c>
       <c r="F2">
-        <v>1.043114869101952</v>
+        <v>1.041715631501918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056763187477353</v>
+        <v>1.055654972919002</v>
       </c>
       <c r="J2">
-        <v>1.03993949456646</v>
+        <v>1.038608605735246</v>
       </c>
       <c r="K2">
-        <v>1.049221583477451</v>
+        <v>1.0472600595528</v>
       </c>
       <c r="L2">
-        <v>1.033378909244364</v>
+        <v>1.032225374118572</v>
       </c>
       <c r="M2">
-        <v>1.054004527901715</v>
+        <v>1.052622854559283</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05131327220012</v>
+        <v>1.050219785676088</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045874175002944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044495925575823</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024539822671586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021774729227108</v>
+        <v>1.020303204717442</v>
       </c>
       <c r="D3">
-        <v>1.04061104633927</v>
+        <v>1.038479010522341</v>
       </c>
       <c r="E3">
-        <v>1.024948110949689</v>
+        <v>1.023687779243986</v>
       </c>
       <c r="F3">
-        <v>1.045558050733169</v>
+        <v>1.044057018695488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057722375359221</v>
+        <v>1.056531033366054</v>
       </c>
       <c r="J3">
-        <v>1.041688894770405</v>
+        <v>1.040255280760123</v>
       </c>
       <c r="K3">
-        <v>1.050749388823268</v>
+        <v>1.048642125600992</v>
       </c>
       <c r="L3">
-        <v>1.035271425185394</v>
+        <v>1.034026282802822</v>
       </c>
       <c r="M3">
-        <v>1.055639393285988</v>
+        <v>1.05415558582224</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052607138387779</v>
+        <v>1.051432822647798</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046951805834757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045470233594976</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024812851298572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023991387627896</v>
+        <v>1.022455740015856</v>
       </c>
       <c r="D4">
-        <v>1.042104604581411</v>
+        <v>1.039880446543346</v>
       </c>
       <c r="E4">
-        <v>1.026689767996478</v>
+        <v>1.025371737223517</v>
       </c>
       <c r="F4">
-        <v>1.047119296054013</v>
+        <v>1.045553801458826</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058324597652378</v>
+        <v>1.057080464335522</v>
       </c>
       <c r="J4">
-        <v>1.042800683189284</v>
+        <v>1.041301960631913</v>
       </c>
       <c r="K4">
-        <v>1.051720094349798</v>
+        <v>1.04952024496937</v>
       </c>
       <c r="L4">
-        <v>1.036476398801524</v>
+        <v>1.035173295606662</v>
       </c>
       <c r="M4">
-        <v>1.056680442895642</v>
+        <v>1.055131844533118</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053431045363573</v>
+        <v>1.052205454073919</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04763905065173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046092097161176</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024984079902543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024917887269396</v>
+        <v>1.023355547843885</v>
       </c>
       <c r="D5">
-        <v>1.042731651330172</v>
+        <v>1.040469116881825</v>
       </c>
       <c r="E5">
-        <v>1.02741945173099</v>
+        <v>1.026077385810967</v>
       </c>
       <c r="F5">
-        <v>1.047773915475185</v>
+        <v>1.046181578274292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05857574608873</v>
+        <v>1.057309591531309</v>
       </c>
       <c r="J5">
-        <v>1.043266414965543</v>
+        <v>1.04174053615846</v>
       </c>
       <c r="K5">
-        <v>1.052127936668434</v>
+        <v>1.049889481844762</v>
       </c>
       <c r="L5">
-        <v>1.03698124340812</v>
+        <v>1.03565397291974</v>
       </c>
       <c r="M5">
-        <v>1.057116994504681</v>
+        <v>1.055541392005261</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053776540558088</v>
+        <v>1.052529578215466</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04793451824623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046360980657786</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025056064511745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025076779030278</v>
+        <v>1.023509853541587</v>
       </c>
       <c r="D6">
-        <v>1.042841517635608</v>
+        <v>1.040572463956657</v>
       </c>
       <c r="E6">
-        <v>1.027545182203755</v>
+        <v>1.02619896879174</v>
       </c>
       <c r="F6">
-        <v>1.047887051177975</v>
+        <v>1.046290143315418</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058620490694656</v>
+        <v>1.057350579809939</v>
       </c>
       <c r="J6">
-        <v>1.043348072243965</v>
+        <v>1.041817529034541</v>
       </c>
       <c r="K6">
-        <v>1.052200983495294</v>
+        <v>1.049955969819814</v>
       </c>
       <c r="L6">
-        <v>1.037069230697424</v>
+        <v>1.035737790531328</v>
       </c>
       <c r="M6">
-        <v>1.0571935168813</v>
+        <v>1.055613315963226</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053837101797005</v>
+        <v>1.05258650027412</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047994819313909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046417514330822</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025069639161781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024014078723068</v>
+        <v>1.022477720939476</v>
       </c>
       <c r="D7">
-        <v>1.042126045711718</v>
+        <v>1.039901092105414</v>
       </c>
       <c r="E7">
-        <v>1.026709031514532</v>
+        <v>1.025390311311338</v>
       </c>
       <c r="F7">
-        <v>1.047137424076565</v>
+        <v>1.045571339118231</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.0583355603429</v>
+        <v>1.057090929952699</v>
       </c>
       <c r="J7">
-        <v>1.042816956186544</v>
+        <v>1.041317524934205</v>
       </c>
       <c r="K7">
-        <v>1.051738461811476</v>
+        <v>1.049537816266767</v>
       </c>
       <c r="L7">
-        <v>1.036492547544178</v>
+        <v>1.03518875706344</v>
       </c>
       <c r="M7">
-        <v>1.056695553713592</v>
+        <v>1.055146365041975</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053443004353142</v>
+        <v>1.052216945900303</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047671938106807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046126423631047</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024989245153479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019489884981108</v>
+        <v>1.018084760503086</v>
       </c>
       <c r="D8">
-        <v>1.039082241495748</v>
+        <v>1.037045578433742</v>
       </c>
       <c r="E8">
-        <v>1.023159216850512</v>
+        <v>1.021958544455222</v>
       </c>
       <c r="F8">
-        <v>1.043956308530167</v>
+        <v>1.04252204051838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057100608007181</v>
+        <v>1.055963800056789</v>
       </c>
       <c r="J8">
-        <v>1.040547446729051</v>
+        <v>1.03918105943982</v>
       </c>
       <c r="K8">
-        <v>1.049757615768514</v>
+        <v>1.047746078494042</v>
       </c>
       <c r="L8">
-        <v>1.03403435999822</v>
+        <v>1.03284906659754</v>
       </c>
       <c r="M8">
-        <v>1.054572047379009</v>
+        <v>1.053155256015034</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051762419073283</v>
+        <v>1.050641140030206</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046275864398394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044864524038603</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024638452423117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011209791660095</v>
+        <v>1.010049652055844</v>
       </c>
       <c r="D9">
-        <v>1.033534195926877</v>
+        <v>1.031844904046933</v>
       </c>
       <c r="E9">
-        <v>1.016704851640501</v>
+        <v>1.015724337906991</v>
       </c>
       <c r="F9">
-        <v>1.038180141950577</v>
+        <v>1.036989925949743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054768231507706</v>
+        <v>1.053829822510243</v>
       </c>
       <c r="J9">
-        <v>1.03637281991809</v>
+        <v>1.035252454954599</v>
       </c>
       <c r="K9">
-        <v>1.046105663931829</v>
+        <v>1.044441616173154</v>
       </c>
       <c r="L9">
-        <v>1.029532595949423</v>
+        <v>1.028567348061424</v>
       </c>
       <c r="M9">
-        <v>1.05068272090484</v>
+        <v>1.049510078433918</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048684318733385</v>
+        <v>1.047756260642979</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043690597190172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042524666425667</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023971105034973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00552957089462</v>
+        <v>1.004536880767633</v>
       </c>
       <c r="D10">
-        <v>1.029774616194681</v>
+        <v>1.028321866795133</v>
       </c>
       <c r="E10">
-        <v>1.012316837028753</v>
+        <v>1.011485991657639</v>
       </c>
       <c r="F10">
-        <v>1.034324798953958</v>
+        <v>1.033301222160089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053149620051058</v>
+        <v>1.052345603133687</v>
       </c>
       <c r="J10">
-        <v>1.033525504893641</v>
+        <v>1.03257164468936</v>
       </c>
       <c r="K10">
-        <v>1.043626314850538</v>
+        <v>1.042197921036527</v>
       </c>
       <c r="L10">
-        <v>1.026467212068054</v>
+        <v>1.025650914206991</v>
       </c>
       <c r="M10">
-        <v>1.048100782900113</v>
+        <v>1.047094163507403</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046691838751593</v>
+        <v>1.045895222066007</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041954233874827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040956603244194</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023513113497355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003412929702465</v>
+        <v>1.002449469340808</v>
       </c>
       <c r="D11">
-        <v>1.02854866131231</v>
+        <v>1.027152587355308</v>
       </c>
       <c r="E11">
-        <v>1.010749617151898</v>
+        <v>1.009941210671007</v>
       </c>
       <c r="F11">
-        <v>1.033464468005286</v>
+        <v>1.032479627632294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052709829303884</v>
+        <v>1.051935546125283</v>
       </c>
       <c r="J11">
-        <v>1.032644412848677</v>
+        <v>1.031720701367761</v>
       </c>
       <c r="K11">
-        <v>1.042951552753539</v>
+        <v>1.041579990265609</v>
       </c>
       <c r="L11">
-        <v>1.025471619335323</v>
+        <v>1.02467805427117</v>
       </c>
       <c r="M11">
-        <v>1.047781732537169</v>
+        <v>1.0468139622657</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046871371911933</v>
+        <v>1.046105877696775</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041509713582236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040555489415595</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023434085367508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002747140720407</v>
+        <v>1.001778781862015</v>
       </c>
       <c r="D12">
-        <v>1.028226125955752</v>
+        <v>1.026834617146857</v>
       </c>
       <c r="E12">
-        <v>1.010282405482629</v>
+        <v>1.009466809173024</v>
       </c>
       <c r="F12">
-        <v>1.033430151635671</v>
+        <v>1.032447638712504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05263468161038</v>
+        <v>1.051861260237575</v>
       </c>
       <c r="J12">
-        <v>1.03243568995801</v>
+        <v>1.031508050765203</v>
       </c>
       <c r="K12">
-        <v>1.042831826624332</v>
+        <v>1.04146515452796</v>
       </c>
       <c r="L12">
-        <v>1.025215227049647</v>
+        <v>1.024414860037642</v>
       </c>
       <c r="M12">
-        <v>1.047943735251324</v>
+        <v>1.046978521704528</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047323035815136</v>
+        <v>1.046559818005252</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041425064712124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04047429963629</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023444327941881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003168890507463</v>
+        <v>1.002168329795257</v>
       </c>
       <c r="D13">
-        <v>1.028596281758755</v>
+        <v>1.027168705728149</v>
       </c>
       <c r="E13">
-        <v>1.010642425208416</v>
+        <v>1.009795741373473</v>
       </c>
       <c r="F13">
-        <v>1.034053671110888</v>
+        <v>1.033045073458223</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052851243288385</v>
+        <v>1.052056056875987</v>
       </c>
       <c r="J13">
-        <v>1.03274760721617</v>
+        <v>1.031788918190898</v>
       </c>
       <c r="K13">
-        <v>1.043153124019297</v>
+        <v>1.041750920927981</v>
       </c>
       <c r="L13">
-        <v>1.025525175410172</v>
+        <v>1.024694234359051</v>
       </c>
       <c r="M13">
-        <v>1.048514353400252</v>
+        <v>1.047523428208984</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048048717066558</v>
+        <v>1.047265362511165</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041649757957441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040673624700438</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023531723888715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003957114586443</v>
+        <v>1.002922181570888</v>
       </c>
       <c r="D14">
-        <v>1.029169802052379</v>
+        <v>1.02769899617941</v>
       </c>
       <c r="E14">
-        <v>1.011269355781732</v>
+        <v>1.010390605546972</v>
       </c>
       <c r="F14">
-        <v>1.034787784936713</v>
+        <v>1.033748419966685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053134793966992</v>
+        <v>1.052314407636789</v>
       </c>
       <c r="J14">
-        <v>1.03320161475327</v>
+        <v>1.032209378739375</v>
       </c>
       <c r="K14">
-        <v>1.04357809170708</v>
+        <v>1.042133105003557</v>
       </c>
       <c r="L14">
-        <v>1.025998526844337</v>
+        <v>1.025135910404658</v>
       </c>
       <c r="M14">
-        <v>1.049098327968879</v>
+        <v>1.04807694315135</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048682470986917</v>
+        <v>1.047875145032766</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041951631119872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040945383161344</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023627880564086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004391951658931</v>
+        <v>1.003342085826408</v>
       </c>
       <c r="D15">
-        <v>1.029469517887831</v>
+        <v>1.027978632225497</v>
       </c>
       <c r="E15">
-        <v>1.011608278602493</v>
+        <v>1.010715933810532</v>
       </c>
       <c r="F15">
-        <v>1.035125592165309</v>
+        <v>1.034072049292119</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053273426297406</v>
+        <v>1.052441537737652</v>
       </c>
       <c r="J15">
-        <v>1.033433164415811</v>
+        <v>1.032426236372994</v>
       </c>
       <c r="K15">
-        <v>1.043787324414643</v>
+        <v>1.04232241327891</v>
       </c>
       <c r="L15">
-        <v>1.026243820197074</v>
+        <v>1.025367732772686</v>
       </c>
       <c r="M15">
-        <v>1.0493457366763</v>
+        <v>1.048310280391491</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048915324266103</v>
+        <v>1.048096897268601</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042105381532029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041085617262763</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023670980365538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006718379482034</v>
+        <v>1.005603694993321</v>
       </c>
       <c r="D16">
-        <v>1.030998942961605</v>
+        <v>1.029414205365974</v>
       </c>
       <c r="E16">
-        <v>1.013393691413167</v>
+        <v>1.012444148628151</v>
       </c>
       <c r="F16">
-        <v>1.036672061888688</v>
+        <v>1.035552787758701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053937641015828</v>
+        <v>1.053052906744365</v>
       </c>
       <c r="J16">
-        <v>1.034592014007273</v>
+        <v>1.033520654384912</v>
       </c>
       <c r="K16">
-        <v>1.044795081411709</v>
+        <v>1.043236758063394</v>
       </c>
       <c r="L16">
-        <v>1.027489277256407</v>
+        <v>1.02655626848352</v>
       </c>
       <c r="M16">
-        <v>1.05037449262451</v>
+        <v>1.049273601921815</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049689987413549</v>
+        <v>1.048819816383897</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042821027968585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041735517875698</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023856666957043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008092576077454</v>
+        <v>1.006945969891232</v>
       </c>
       <c r="D17">
-        <v>1.031873520249064</v>
+        <v>1.030239339664947</v>
       </c>
       <c r="E17">
-        <v>1.014438392841619</v>
+        <v>1.013461507979532</v>
       </c>
       <c r="F17">
-        <v>1.037470184753682</v>
+        <v>1.03631647999587</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054296416977926</v>
+        <v>1.053384217503944</v>
       </c>
       <c r="J17">
-        <v>1.035243281736384</v>
+        <v>1.034139816938045</v>
       </c>
       <c r="K17">
-        <v>1.045344855065298</v>
+        <v>1.043737153843967</v>
       </c>
       <c r="L17">
-        <v>1.028197913752135</v>
+        <v>1.027237554440145</v>
       </c>
       <c r="M17">
-        <v>1.050851644417547</v>
+        <v>1.04971636481955</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049938991022585</v>
+        <v>1.049041549799215</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043212296319007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042092122202281</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023947940898713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008761089107662</v>
+        <v>1.007610047049834</v>
       </c>
       <c r="D18">
-        <v>1.032239952514118</v>
+        <v>1.030592261751852</v>
       </c>
       <c r="E18">
-        <v>1.014925631374278</v>
+        <v>1.013946659186029</v>
       </c>
       <c r="F18">
-        <v>1.037650068029203</v>
+        <v>1.036487321626663</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054410175674266</v>
+        <v>1.053491300149996</v>
       </c>
       <c r="J18">
-        <v>1.035497150596698</v>
+        <v>1.034388607043745</v>
       </c>
       <c r="K18">
-        <v>1.045524457514847</v>
+        <v>1.043903030586926</v>
       </c>
       <c r="L18">
-        <v>1.028491608217028</v>
+        <v>1.02752892060279</v>
       </c>
       <c r="M18">
-        <v>1.050849087395433</v>
+        <v>1.049704617283074</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049701126604245</v>
+        <v>1.048796234324326</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043327750325587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042196733375379</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023958495459137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008792426519892</v>
+        <v>1.007662452751473</v>
       </c>
       <c r="D19">
-        <v>1.032151802393889</v>
+        <v>1.03052406201613</v>
       </c>
       <c r="E19">
-        <v>1.014909994920347</v>
+        <v>1.013952252490169</v>
       </c>
       <c r="F19">
-        <v>1.037267431591985</v>
+        <v>1.036119289899569</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054306162762815</v>
+        <v>1.053400002371734</v>
       </c>
       <c r="J19">
-        <v>1.035394622109529</v>
+        <v>1.0343061206925</v>
       </c>
       <c r="K19">
-        <v>1.045376014072496</v>
+        <v>1.043774086487123</v>
       </c>
       <c r="L19">
-        <v>1.028413040921554</v>
+        <v>1.02747114494323</v>
       </c>
       <c r="M19">
-        <v>1.050411193761516</v>
+        <v>1.049281019560326</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049032245010584</v>
+        <v>1.048138368844066</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043229133877175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042112529833854</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023899520720844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007027360208224</v>
+        <v>1.005989450136211</v>
       </c>
       <c r="D20">
-        <v>1.030780114633771</v>
+        <v>1.029264651626553</v>
       </c>
       <c r="E20">
-        <v>1.013475952323881</v>
+        <v>1.012604518395005</v>
       </c>
       <c r="F20">
-        <v>1.035347843866507</v>
+        <v>1.034279905147236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053591822300218</v>
+        <v>1.052752033835252</v>
       </c>
       <c r="J20">
-        <v>1.034290051022811</v>
+        <v>1.033291425073715</v>
       </c>
       <c r="K20">
-        <v>1.044302496185759</v>
+        <v>1.042811722100341</v>
       </c>
       <c r="L20">
-        <v>1.027285911129568</v>
+        <v>1.026429295192271</v>
       </c>
       <c r="M20">
-        <v>1.048796371910531</v>
+        <v>1.047745625221465</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047231873046159</v>
+        <v>1.04640032512104</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042474014235531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041436390870638</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023643803702057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002691228201744</v>
+        <v>1.001788999796892</v>
       </c>
       <c r="D21">
-        <v>1.02788325570571</v>
+        <v>1.026555262054082</v>
       </c>
       <c r="E21">
-        <v>1.010125939302717</v>
+        <v>1.009376243088249</v>
       </c>
       <c r="F21">
-        <v>1.032305759343427</v>
+        <v>1.031370368520276</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052306543683676</v>
+        <v>1.051573573000313</v>
       </c>
       <c r="J21">
-        <v>1.032076859613156</v>
+        <v>1.031212113623685</v>
       </c>
       <c r="K21">
-        <v>1.042354950354008</v>
+        <v>1.041050416612371</v>
       </c>
       <c r="L21">
-        <v>1.024917978966663</v>
+        <v>1.024182130672648</v>
       </c>
       <c r="M21">
-        <v>1.046699891022415</v>
+        <v>1.045780833472086</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04553220447027</v>
+        <v>1.044804836711419</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041100248202915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040194634305121</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023270126120541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9999289664113329</v>
+        <v>0.9991123989984947</v>
       </c>
       <c r="D22">
-        <v>1.026048202329243</v>
+        <v>1.024838272860527</v>
       </c>
       <c r="E22">
-        <v>1.008001151490682</v>
+        <v>1.007328053088129</v>
       </c>
       <c r="F22">
-        <v>1.03040998798748</v>
+        <v>1.029558234027452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051485938674551</v>
+        <v>1.050820086738193</v>
       </c>
       <c r="J22">
-        <v>1.030672277392041</v>
+        <v>1.029891599129445</v>
       </c>
       <c r="K22">
-        <v>1.041120717695758</v>
+        <v>1.039933231290344</v>
       </c>
       <c r="L22">
-        <v>1.023415753096733</v>
+        <v>1.022755724323712</v>
       </c>
       <c r="M22">
-        <v>1.045402165994676</v>
+        <v>1.044566030362376</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044505148506499</v>
+        <v>1.043843406565525</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040214212362926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039390051257235</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023031969277559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001388478489714</v>
+        <v>1.000526819701338</v>
       </c>
       <c r="D23">
-        <v>1.027011944706071</v>
+        <v>1.025739610593864</v>
       </c>
       <c r="E23">
-        <v>1.009121553769789</v>
+        <v>1.008408226459371</v>
       </c>
       <c r="F23">
-        <v>1.031409001138333</v>
+        <v>1.030513076457406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051916304456559</v>
+        <v>1.051215049188006</v>
       </c>
       <c r="J23">
-        <v>1.031410180394026</v>
+        <v>1.030585286941957</v>
       </c>
       <c r="K23">
-        <v>1.041765756528866</v>
+        <v>1.040516425421157</v>
       </c>
       <c r="L23">
-        <v>1.024205774143572</v>
+        <v>1.023505938620453</v>
       </c>
       <c r="M23">
-        <v>1.046083884282478</v>
+        <v>1.045203970798522</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045044679648345</v>
+        <v>1.044348291145786</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040660719482983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039791884992606</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02315503467584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007045057178212</v>
+        <v>1.006010176243285</v>
       </c>
       <c r="D24">
-        <v>1.030767092375463</v>
+        <v>1.029253978793328</v>
       </c>
       <c r="E24">
-        <v>1.013481565923254</v>
+        <v>1.012613265611644</v>
       </c>
       <c r="F24">
-        <v>1.035300693919875</v>
+        <v>1.034234588877577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053573808518557</v>
+        <v>1.052735662805275</v>
       </c>
       <c r="J24">
-        <v>1.034274584748842</v>
+        <v>1.033278816267239</v>
       </c>
       <c r="K24">
-        <v>1.044274619782946</v>
+        <v>1.042786126065933</v>
       </c>
       <c r="L24">
-        <v>1.027275995445305</v>
+        <v>1.026422440605349</v>
       </c>
       <c r="M24">
-        <v>1.048735007763905</v>
+        <v>1.047686045290252</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047142850014719</v>
+        <v>1.046312673639812</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042427140088115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041388449336207</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023631512383394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013402999095854</v>
+        <v>1.012177093173194</v>
       </c>
       <c r="D25">
-        <v>1.035009089489939</v>
+        <v>1.033227498937648</v>
       </c>
       <c r="E25">
-        <v>1.018411473162188</v>
+        <v>1.017371806216077</v>
       </c>
       <c r="F25">
-        <v>1.039707363167616</v>
+        <v>1.038452124797316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055400625941739</v>
+        <v>1.054409483652233</v>
       </c>
       <c r="J25">
-        <v>1.037487567369702</v>
+        <v>1.036301485874238</v>
       </c>
       <c r="K25">
-        <v>1.047087199157299</v>
+        <v>1.045331003887453</v>
       </c>
       <c r="L25">
-        <v>1.030730543163763</v>
+        <v>1.02970630246768</v>
       </c>
       <c r="M25">
-        <v>1.051719029674751</v>
+        <v>1.050481468552193</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049504478014306</v>
+        <v>1.048525042754643</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044412907365892</v>
+        <v>1.043184634525963</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024155427273775</v>
       </c>
     </row>
   </sheetData>
